--- a/en/Sample_Project/Design_Document/B1_Client_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_B10103C_Client_Registration_Request_Message__(JSON).xlsx
+++ b/en/Sample_Project/Design_Document/B1_Client_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_B10103C_Client_Registration_Request_Message__(JSON).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6529899-7095-47C4-9D29-752C68DEA1AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41D40AD-938F-4281-8618-190608FAA414}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,10 +602,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>External Interface Design Document(JSON)</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t>Version No.</t>
     <phoneticPr fontId="12"/>
   </si>
@@ -696,6 +692,10 @@
   </si>
   <si>
     <t>3. Data layout</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>External Interface Design(JSON)</t>
     <phoneticPr fontId="12"/>
   </si>
 </sst>
@@ -2146,6 +2146,144 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2182,143 +2320,41 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2338,51 +2374,93 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2395,15 +2473,6 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2431,74 +2500,221 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2527,15 +2743,6 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2548,214 +2755,55 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2767,30 +2815,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2805,33 +2832,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3210,7 +3210,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>External Interface Design Document(JSON)</a:t>
+            <a:t>External Interface Design(JSON)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6576,155 +6576,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="285" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="251" t="s">
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="245" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
-      <c r="N1" s="253"/>
-      <c r="O1" s="242" t="s">
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="288" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="243"/>
-      <c r="Q1" s="243"/>
-      <c r="R1" s="244"/>
-      <c r="S1" s="288" t="s">
-        <v>95</v>
-      </c>
-      <c r="T1" s="289"/>
-      <c r="U1" s="289"/>
-      <c r="V1" s="289"/>
-      <c r="W1" s="289"/>
-      <c r="X1" s="289"/>
-      <c r="Y1" s="289"/>
-      <c r="Z1" s="290"/>
-      <c r="AA1" s="239" t="s">
+      <c r="P1" s="289"/>
+      <c r="Q1" s="289"/>
+      <c r="R1" s="290"/>
+      <c r="S1" s="251" t="s">
+        <v>107</v>
+      </c>
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
+      <c r="X1" s="252"/>
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="285" t="s">
         <v>89</v>
       </c>
-      <c r="AB1" s="241"/>
-      <c r="AC1" s="279" t="str">
+      <c r="AB1" s="287"/>
+      <c r="AC1" s="239" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="280"/>
-      <c r="AE1" s="280"/>
-      <c r="AF1" s="281"/>
-      <c r="AG1" s="282">
+      <c r="AD1" s="240"/>
+      <c r="AE1" s="240"/>
+      <c r="AF1" s="241"/>
+      <c r="AG1" s="242">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="283"/>
-      <c r="AI1" s="284"/>
+      <c r="AH1" s="243"/>
+      <c r="AI1" s="244"/>
       <c r="AK1" s="170"/>
       <c r="AL1" s="170"/>
       <c r="AM1" s="170"/>
       <c r="AN1" s="220"/>
     </row>
     <row r="2" spans="1:40" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="239" t="s">
+      <c r="A2" s="285" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="251" t="s">
+      <c r="B2" s="286"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="245" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="252"/>
-      <c r="K2" s="252"/>
-      <c r="L2" s="252"/>
-      <c r="M2" s="252"/>
-      <c r="N2" s="253"/>
-      <c r="O2" s="245"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="247"/>
-      <c r="S2" s="291"/>
-      <c r="T2" s="292"/>
-      <c r="U2" s="292"/>
-      <c r="V2" s="292"/>
-      <c r="W2" s="292"/>
-      <c r="X2" s="292"/>
-      <c r="Y2" s="292"/>
-      <c r="Z2" s="293"/>
-      <c r="AA2" s="239" t="s">
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="246"/>
+      <c r="M2" s="246"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="291"/>
+      <c r="P2" s="292"/>
+      <c r="Q2" s="292"/>
+      <c r="R2" s="293"/>
+      <c r="S2" s="254"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="256"/>
+      <c r="AA2" s="285" t="s">
         <v>92</v>
       </c>
-      <c r="AB2" s="241"/>
-      <c r="AC2" s="285" t="str">
+      <c r="AB2" s="287"/>
+      <c r="AC2" s="248" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="286"/>
-      <c r="AE2" s="286"/>
-      <c r="AF2" s="287"/>
-      <c r="AG2" s="282" t="str">
+      <c r="AD2" s="249"/>
+      <c r="AE2" s="249"/>
+      <c r="AF2" s="250"/>
+      <c r="AG2" s="242" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="283"/>
-      <c r="AI2" s="284"/>
+      <c r="AH2" s="243"/>
+      <c r="AI2" s="244"/>
       <c r="AK2" s="170"/>
       <c r="AL2" s="170"/>
       <c r="AM2" s="170"/>
       <c r="AN2" s="170"/>
     </row>
     <row r="3" spans="1:40" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="239" t="s">
+      <c r="A3" s="285" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="240"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="251" t="s">
+      <c r="B3" s="286"/>
+      <c r="C3" s="286"/>
+      <c r="D3" s="287"/>
+      <c r="E3" s="245" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="252"/>
-      <c r="L3" s="252"/>
-      <c r="M3" s="252"/>
-      <c r="N3" s="253"/>
-      <c r="O3" s="248"/>
-      <c r="P3" s="249"/>
-      <c r="Q3" s="249"/>
-      <c r="R3" s="250"/>
-      <c r="S3" s="294"/>
-      <c r="T3" s="295"/>
-      <c r="U3" s="295"/>
-      <c r="V3" s="295"/>
-      <c r="W3" s="295"/>
-      <c r="X3" s="295"/>
-      <c r="Y3" s="295"/>
-      <c r="Z3" s="296"/>
-      <c r="AA3" s="239"/>
-      <c r="AB3" s="241"/>
-      <c r="AC3" s="279"/>
-      <c r="AD3" s="280"/>
-      <c r="AE3" s="280"/>
-      <c r="AF3" s="281"/>
-      <c r="AG3" s="282"/>
-      <c r="AH3" s="283"/>
-      <c r="AI3" s="284"/>
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="246"/>
+      <c r="L3" s="246"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="294"/>
+      <c r="P3" s="295"/>
+      <c r="Q3" s="295"/>
+      <c r="R3" s="296"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="259"/>
+      <c r="AA3" s="285"/>
+      <c r="AB3" s="287"/>
+      <c r="AC3" s="239"/>
+      <c r="AD3" s="240"/>
+      <c r="AE3" s="240"/>
+      <c r="AF3" s="241"/>
+      <c r="AG3" s="242"/>
+      <c r="AH3" s="243"/>
+      <c r="AI3" s="244"/>
       <c r="AK3" s="170"/>
       <c r="AL3" s="170"/>
       <c r="AM3" s="170"/>
@@ -6743,7 +6743,7 @@
     </row>
     <row r="5" spans="1:40" s="66" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N5" s="224" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB5" s="221"/>
       <c r="AC5" s="221"/>
@@ -6771,98 +6771,98 @@
       <c r="A7" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="277" t="s">
+      <c r="B7" s="283" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="284"/>
+      <c r="D7" s="260" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="278"/>
-      <c r="D7" s="263" t="s">
+      <c r="E7" s="261"/>
+      <c r="F7" s="262"/>
+      <c r="G7" s="260" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="264"/>
-      <c r="F7" s="265"/>
-      <c r="G7" s="263" t="s">
+      <c r="H7" s="261"/>
+      <c r="I7" s="262"/>
+      <c r="J7" s="260" t="s">
         <v>98</v>
       </c>
-      <c r="H7" s="264"/>
-      <c r="I7" s="265"/>
-      <c r="J7" s="263" t="s">
+      <c r="K7" s="261"/>
+      <c r="L7" s="261"/>
+      <c r="M7" s="261"/>
+      <c r="N7" s="261"/>
+      <c r="O7" s="261"/>
+      <c r="P7" s="262"/>
+      <c r="Q7" s="260" t="s">
         <v>99</v>
       </c>
-      <c r="K7" s="264"/>
-      <c r="L7" s="264"/>
-      <c r="M7" s="264"/>
-      <c r="N7" s="264"/>
-      <c r="O7" s="264"/>
-      <c r="P7" s="265"/>
-      <c r="Q7" s="263" t="s">
+      <c r="R7" s="261"/>
+      <c r="S7" s="261"/>
+      <c r="T7" s="261"/>
+      <c r="U7" s="261"/>
+      <c r="V7" s="261"/>
+      <c r="W7" s="261"/>
+      <c r="X7" s="261"/>
+      <c r="Y7" s="261"/>
+      <c r="Z7" s="261"/>
+      <c r="AA7" s="261"/>
+      <c r="AB7" s="261"/>
+      <c r="AC7" s="261"/>
+      <c r="AD7" s="261"/>
+      <c r="AE7" s="262"/>
+      <c r="AF7" s="260" t="s">
         <v>100</v>
       </c>
-      <c r="R7" s="264"/>
-      <c r="S7" s="264"/>
-      <c r="T7" s="264"/>
-      <c r="U7" s="264"/>
-      <c r="V7" s="264"/>
-      <c r="W7" s="264"/>
-      <c r="X7" s="264"/>
-      <c r="Y7" s="264"/>
-      <c r="Z7" s="264"/>
-      <c r="AA7" s="264"/>
-      <c r="AB7" s="264"/>
-      <c r="AC7" s="264"/>
-      <c r="AD7" s="264"/>
-      <c r="AE7" s="265"/>
-      <c r="AF7" s="263" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG7" s="264"/>
-      <c r="AH7" s="264"/>
-      <c r="AI7" s="265"/>
+      <c r="AG7" s="261"/>
+      <c r="AH7" s="261"/>
+      <c r="AI7" s="262"/>
       <c r="AJ7" s="225"/>
     </row>
     <row r="8" spans="1:40" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="226">
         <v>1</v>
       </c>
-      <c r="B8" s="266" t="s">
+      <c r="B8" s="272" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="267"/>
-      <c r="D8" s="268">
+      <c r="C8" s="273"/>
+      <c r="D8" s="274">
         <v>43718</v>
       </c>
-      <c r="E8" s="269"/>
-      <c r="F8" s="270"/>
-      <c r="G8" s="271" t="s">
+      <c r="E8" s="275"/>
+      <c r="F8" s="276"/>
+      <c r="G8" s="277" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="278"/>
+      <c r="I8" s="279"/>
+      <c r="J8" s="280" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="281"/>
+      <c r="L8" s="281"/>
+      <c r="M8" s="281"/>
+      <c r="N8" s="281"/>
+      <c r="O8" s="281"/>
+      <c r="P8" s="282"/>
+      <c r="Q8" s="280" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="272"/>
-      <c r="I8" s="273"/>
-      <c r="J8" s="274" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="275"/>
-      <c r="L8" s="275"/>
-      <c r="M8" s="275"/>
-      <c r="N8" s="275"/>
-      <c r="O8" s="275"/>
-      <c r="P8" s="276"/>
-      <c r="Q8" s="274" t="s">
-        <v>103</v>
-      </c>
-      <c r="R8" s="275"/>
-      <c r="S8" s="275"/>
-      <c r="T8" s="275"/>
-      <c r="U8" s="275"/>
-      <c r="V8" s="275"/>
-      <c r="W8" s="275"/>
-      <c r="X8" s="275"/>
-      <c r="Y8" s="275"/>
-      <c r="Z8" s="275"/>
-      <c r="AA8" s="275"/>
-      <c r="AB8" s="275"/>
-      <c r="AC8" s="275"/>
-      <c r="AD8" s="275"/>
-      <c r="AE8" s="276"/>
+      <c r="R8" s="281"/>
+      <c r="S8" s="281"/>
+      <c r="T8" s="281"/>
+      <c r="U8" s="281"/>
+      <c r="V8" s="281"/>
+      <c r="W8" s="281"/>
+      <c r="X8" s="281"/>
+      <c r="Y8" s="281"/>
+      <c r="Z8" s="281"/>
+      <c r="AA8" s="281"/>
+      <c r="AB8" s="281"/>
+      <c r="AC8" s="281"/>
+      <c r="AD8" s="281"/>
+      <c r="AE8" s="282"/>
       <c r="AF8" s="227" t="s">
         <v>2</v>
       </c>
@@ -6873,36 +6873,36 @@
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37"/>
-      <c r="B9" s="254"/>
-      <c r="C9" s="255"/>
-      <c r="D9" s="256"/>
-      <c r="E9" s="257"/>
-      <c r="F9" s="258"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="259"/>
-      <c r="I9" s="255"/>
-      <c r="J9" s="260"/>
-      <c r="K9" s="261"/>
-      <c r="L9" s="261"/>
-      <c r="M9" s="261"/>
-      <c r="N9" s="261"/>
-      <c r="O9" s="261"/>
-      <c r="P9" s="262"/>
-      <c r="Q9" s="260"/>
-      <c r="R9" s="261"/>
-      <c r="S9" s="261"/>
-      <c r="T9" s="261"/>
-      <c r="U9" s="261"/>
-      <c r="V9" s="261"/>
-      <c r="W9" s="261"/>
-      <c r="X9" s="261"/>
-      <c r="Y9" s="261"/>
-      <c r="Z9" s="261"/>
-      <c r="AA9" s="261"/>
-      <c r="AB9" s="261"/>
-      <c r="AC9" s="261"/>
-      <c r="AD9" s="261"/>
-      <c r="AE9" s="262"/>
+      <c r="B9" s="263"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="265"/>
+      <c r="E9" s="266"/>
+      <c r="F9" s="267"/>
+      <c r="G9" s="263"/>
+      <c r="H9" s="268"/>
+      <c r="I9" s="264"/>
+      <c r="J9" s="269"/>
+      <c r="K9" s="270"/>
+      <c r="L9" s="270"/>
+      <c r="M9" s="270"/>
+      <c r="N9" s="270"/>
+      <c r="O9" s="270"/>
+      <c r="P9" s="271"/>
+      <c r="Q9" s="269"/>
+      <c r="R9" s="270"/>
+      <c r="S9" s="270"/>
+      <c r="T9" s="270"/>
+      <c r="U9" s="270"/>
+      <c r="V9" s="270"/>
+      <c r="W9" s="270"/>
+      <c r="X9" s="270"/>
+      <c r="Y9" s="270"/>
+      <c r="Z9" s="270"/>
+      <c r="AA9" s="270"/>
+      <c r="AB9" s="270"/>
+      <c r="AC9" s="270"/>
+      <c r="AD9" s="270"/>
+      <c r="AE9" s="271"/>
       <c r="AF9" s="216"/>
       <c r="AG9" s="217"/>
       <c r="AH9" s="217"/>
@@ -6911,36 +6911,36 @@
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="37"/>
-      <c r="B10" s="254"/>
-      <c r="C10" s="255"/>
-      <c r="D10" s="256"/>
-      <c r="E10" s="257"/>
-      <c r="F10" s="258"/>
-      <c r="G10" s="254"/>
-      <c r="H10" s="259"/>
-      <c r="I10" s="255"/>
-      <c r="J10" s="260"/>
-      <c r="K10" s="261"/>
-      <c r="L10" s="261"/>
-      <c r="M10" s="261"/>
-      <c r="N10" s="261"/>
-      <c r="O10" s="261"/>
-      <c r="P10" s="262"/>
-      <c r="Q10" s="260"/>
-      <c r="R10" s="261"/>
-      <c r="S10" s="261"/>
-      <c r="T10" s="261"/>
-      <c r="U10" s="261"/>
-      <c r="V10" s="261"/>
-      <c r="W10" s="261"/>
-      <c r="X10" s="261"/>
-      <c r="Y10" s="261"/>
-      <c r="Z10" s="261"/>
-      <c r="AA10" s="261"/>
-      <c r="AB10" s="261"/>
-      <c r="AC10" s="261"/>
-      <c r="AD10" s="261"/>
-      <c r="AE10" s="262"/>
+      <c r="B10" s="263"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="265"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="267"/>
+      <c r="G10" s="263"/>
+      <c r="H10" s="268"/>
+      <c r="I10" s="264"/>
+      <c r="J10" s="269"/>
+      <c r="K10" s="270"/>
+      <c r="L10" s="270"/>
+      <c r="M10" s="270"/>
+      <c r="N10" s="270"/>
+      <c r="O10" s="270"/>
+      <c r="P10" s="271"/>
+      <c r="Q10" s="269"/>
+      <c r="R10" s="270"/>
+      <c r="S10" s="270"/>
+      <c r="T10" s="270"/>
+      <c r="U10" s="270"/>
+      <c r="V10" s="270"/>
+      <c r="W10" s="270"/>
+      <c r="X10" s="270"/>
+      <c r="Y10" s="270"/>
+      <c r="Z10" s="270"/>
+      <c r="AA10" s="270"/>
+      <c r="AB10" s="270"/>
+      <c r="AC10" s="270"/>
+      <c r="AD10" s="270"/>
+      <c r="AE10" s="271"/>
       <c r="AF10" s="216"/>
       <c r="AG10" s="217"/>
       <c r="AH10" s="217"/>
@@ -6948,36 +6948,36 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
-      <c r="B11" s="254"/>
-      <c r="C11" s="255"/>
-      <c r="D11" s="256"/>
-      <c r="E11" s="257"/>
-      <c r="F11" s="258"/>
-      <c r="G11" s="254"/>
-      <c r="H11" s="259"/>
-      <c r="I11" s="255"/>
-      <c r="J11" s="260"/>
-      <c r="K11" s="261"/>
-      <c r="L11" s="261"/>
-      <c r="M11" s="261"/>
-      <c r="N11" s="261"/>
-      <c r="O11" s="261"/>
-      <c r="P11" s="262"/>
-      <c r="Q11" s="260"/>
-      <c r="R11" s="261"/>
-      <c r="S11" s="261"/>
-      <c r="T11" s="261"/>
-      <c r="U11" s="261"/>
-      <c r="V11" s="261"/>
-      <c r="W11" s="261"/>
-      <c r="X11" s="261"/>
-      <c r="Y11" s="261"/>
-      <c r="Z11" s="261"/>
-      <c r="AA11" s="261"/>
-      <c r="AB11" s="261"/>
-      <c r="AC11" s="261"/>
-      <c r="AD11" s="261"/>
-      <c r="AE11" s="262"/>
+      <c r="B11" s="263"/>
+      <c r="C11" s="264"/>
+      <c r="D11" s="265"/>
+      <c r="E11" s="266"/>
+      <c r="F11" s="267"/>
+      <c r="G11" s="263"/>
+      <c r="H11" s="268"/>
+      <c r="I11" s="264"/>
+      <c r="J11" s="269"/>
+      <c r="K11" s="270"/>
+      <c r="L11" s="270"/>
+      <c r="M11" s="270"/>
+      <c r="N11" s="270"/>
+      <c r="O11" s="270"/>
+      <c r="P11" s="271"/>
+      <c r="Q11" s="269"/>
+      <c r="R11" s="270"/>
+      <c r="S11" s="270"/>
+      <c r="T11" s="270"/>
+      <c r="U11" s="270"/>
+      <c r="V11" s="270"/>
+      <c r="W11" s="270"/>
+      <c r="X11" s="270"/>
+      <c r="Y11" s="270"/>
+      <c r="Z11" s="270"/>
+      <c r="AA11" s="270"/>
+      <c r="AB11" s="270"/>
+      <c r="AC11" s="270"/>
+      <c r="AD11" s="270"/>
+      <c r="AE11" s="271"/>
       <c r="AF11" s="216"/>
       <c r="AG11" s="217"/>
       <c r="AH11" s="217"/>
@@ -6985,36 +6985,36 @@
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
-      <c r="B12" s="254"/>
-      <c r="C12" s="255"/>
-      <c r="D12" s="256"/>
-      <c r="E12" s="257"/>
-      <c r="F12" s="258"/>
-      <c r="G12" s="254"/>
-      <c r="H12" s="259"/>
-      <c r="I12" s="255"/>
-      <c r="J12" s="260"/>
-      <c r="K12" s="261"/>
-      <c r="L12" s="261"/>
-      <c r="M12" s="261"/>
-      <c r="N12" s="261"/>
-      <c r="O12" s="261"/>
-      <c r="P12" s="262"/>
-      <c r="Q12" s="260"/>
-      <c r="R12" s="261"/>
-      <c r="S12" s="261"/>
-      <c r="T12" s="261"/>
-      <c r="U12" s="261"/>
-      <c r="V12" s="261"/>
-      <c r="W12" s="261"/>
-      <c r="X12" s="261"/>
-      <c r="Y12" s="261"/>
-      <c r="Z12" s="261"/>
-      <c r="AA12" s="261"/>
-      <c r="AB12" s="261"/>
-      <c r="AC12" s="261"/>
-      <c r="AD12" s="261"/>
-      <c r="AE12" s="262"/>
+      <c r="B12" s="263"/>
+      <c r="C12" s="264"/>
+      <c r="D12" s="265"/>
+      <c r="E12" s="266"/>
+      <c r="F12" s="267"/>
+      <c r="G12" s="263"/>
+      <c r="H12" s="268"/>
+      <c r="I12" s="264"/>
+      <c r="J12" s="269"/>
+      <c r="K12" s="270"/>
+      <c r="L12" s="270"/>
+      <c r="M12" s="270"/>
+      <c r="N12" s="270"/>
+      <c r="O12" s="270"/>
+      <c r="P12" s="271"/>
+      <c r="Q12" s="269"/>
+      <c r="R12" s="270"/>
+      <c r="S12" s="270"/>
+      <c r="T12" s="270"/>
+      <c r="U12" s="270"/>
+      <c r="V12" s="270"/>
+      <c r="W12" s="270"/>
+      <c r="X12" s="270"/>
+      <c r="Y12" s="270"/>
+      <c r="Z12" s="270"/>
+      <c r="AA12" s="270"/>
+      <c r="AB12" s="270"/>
+      <c r="AC12" s="270"/>
+      <c r="AD12" s="270"/>
+      <c r="AE12" s="271"/>
       <c r="AF12" s="216"/>
       <c r="AG12" s="217"/>
       <c r="AH12" s="217"/>
@@ -7022,36 +7022,36 @@
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="37"/>
-      <c r="B13" s="254"/>
-      <c r="C13" s="255"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="257"/>
-      <c r="F13" s="258"/>
-      <c r="G13" s="254"/>
-      <c r="H13" s="259"/>
-      <c r="I13" s="255"/>
-      <c r="J13" s="260"/>
-      <c r="K13" s="261"/>
-      <c r="L13" s="261"/>
-      <c r="M13" s="261"/>
-      <c r="N13" s="261"/>
-      <c r="O13" s="261"/>
-      <c r="P13" s="262"/>
-      <c r="Q13" s="260"/>
-      <c r="R13" s="261"/>
-      <c r="S13" s="261"/>
-      <c r="T13" s="261"/>
-      <c r="U13" s="261"/>
-      <c r="V13" s="261"/>
-      <c r="W13" s="261"/>
-      <c r="X13" s="261"/>
-      <c r="Y13" s="261"/>
-      <c r="Z13" s="261"/>
-      <c r="AA13" s="261"/>
-      <c r="AB13" s="261"/>
-      <c r="AC13" s="261"/>
-      <c r="AD13" s="261"/>
-      <c r="AE13" s="262"/>
+      <c r="B13" s="263"/>
+      <c r="C13" s="264"/>
+      <c r="D13" s="265"/>
+      <c r="E13" s="266"/>
+      <c r="F13" s="267"/>
+      <c r="G13" s="263"/>
+      <c r="H13" s="268"/>
+      <c r="I13" s="264"/>
+      <c r="J13" s="269"/>
+      <c r="K13" s="270"/>
+      <c r="L13" s="270"/>
+      <c r="M13" s="270"/>
+      <c r="N13" s="270"/>
+      <c r="O13" s="270"/>
+      <c r="P13" s="271"/>
+      <c r="Q13" s="269"/>
+      <c r="R13" s="270"/>
+      <c r="S13" s="270"/>
+      <c r="T13" s="270"/>
+      <c r="U13" s="270"/>
+      <c r="V13" s="270"/>
+      <c r="W13" s="270"/>
+      <c r="X13" s="270"/>
+      <c r="Y13" s="270"/>
+      <c r="Z13" s="270"/>
+      <c r="AA13" s="270"/>
+      <c r="AB13" s="270"/>
+      <c r="AC13" s="270"/>
+      <c r="AD13" s="270"/>
+      <c r="AE13" s="271"/>
       <c r="AF13" s="216"/>
       <c r="AG13" s="217"/>
       <c r="AH13" s="217"/>
@@ -7799,14 +7799,35 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
     <mergeCell ref="AF7:AI7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:F9"/>
@@ -7823,35 +7844,14 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:P7"/>
     <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -8007,163 +8007,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="80" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="303" t="str">
+      <c r="A1" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="251" t="str">
+      <c r="B1" s="298"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
-      <c r="N1" s="253"/>
-      <c r="O1" s="306" t="str">
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="300" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="307"/>
-      <c r="Q1" s="307"/>
-      <c r="R1" s="308"/>
-      <c r="S1" s="288" t="str">
+      <c r="P1" s="301"/>
+      <c r="Q1" s="301"/>
+      <c r="R1" s="302"/>
+      <c r="S1" s="251" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
-        <v>External Interface Design Document(JSON)</v>
-      </c>
-      <c r="T1" s="289"/>
-      <c r="U1" s="289"/>
-      <c r="V1" s="289"/>
-      <c r="W1" s="289"/>
-      <c r="X1" s="289"/>
-      <c r="Y1" s="289"/>
-      <c r="Z1" s="290"/>
-      <c r="AA1" s="303" t="str">
+        <v>External Interface Design(JSON)</v>
+      </c>
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
+      <c r="X1" s="252"/>
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="304"/>
-      <c r="AC1" s="300" t="str">
+      <c r="AB1" s="299"/>
+      <c r="AC1" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="301"/>
-      <c r="AE1" s="301"/>
-      <c r="AF1" s="302"/>
-      <c r="AG1" s="297">
+      <c r="AD1" s="313"/>
+      <c r="AE1" s="313"/>
+      <c r="AF1" s="314"/>
+      <c r="AG1" s="309">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="298"/>
-      <c r="AI1" s="299"/>
+      <c r="AH1" s="310"/>
+      <c r="AI1" s="311"/>
     </row>
     <row r="2" spans="1:35" s="80" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="303" t="str">
+      <c r="A2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="305"/>
-      <c r="C2" s="305"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="251" t="str">
+      <c r="B2" s="298"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="252"/>
-      <c r="K2" s="252"/>
-      <c r="L2" s="252"/>
-      <c r="M2" s="252"/>
-      <c r="N2" s="253"/>
-      <c r="O2" s="309"/>
-      <c r="P2" s="310"/>
-      <c r="Q2" s="310"/>
-      <c r="R2" s="311"/>
-      <c r="S2" s="291"/>
-      <c r="T2" s="292"/>
-      <c r="U2" s="292"/>
-      <c r="V2" s="292"/>
-      <c r="W2" s="292"/>
-      <c r="X2" s="292"/>
-      <c r="Y2" s="292"/>
-      <c r="Z2" s="293"/>
-      <c r="AA2" s="303" t="str">
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="246"/>
+      <c r="M2" s="246"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="303"/>
+      <c r="P2" s="304"/>
+      <c r="Q2" s="304"/>
+      <c r="R2" s="305"/>
+      <c r="S2" s="254"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="256"/>
+      <c r="AA2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="304"/>
-      <c r="AC2" s="300" t="str">
+      <c r="AB2" s="299"/>
+      <c r="AC2" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="301"/>
-      <c r="AE2" s="301"/>
-      <c r="AF2" s="302"/>
-      <c r="AG2" s="297" t="str">
+      <c r="AD2" s="313"/>
+      <c r="AE2" s="313"/>
+      <c r="AF2" s="314"/>
+      <c r="AG2" s="309" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="298"/>
-      <c r="AI2" s="299"/>
+      <c r="AH2" s="310"/>
+      <c r="AI2" s="311"/>
     </row>
     <row r="3" spans="1:35" s="80" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="303" t="str">
+      <c r="A3" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="305"/>
-      <c r="C3" s="305"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="251" t="str">
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Client Management System</v>
       </c>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="252"/>
-      <c r="L3" s="252"/>
-      <c r="M3" s="252"/>
-      <c r="N3" s="253"/>
-      <c r="O3" s="312"/>
-      <c r="P3" s="313"/>
-      <c r="Q3" s="313"/>
-      <c r="R3" s="314"/>
-      <c r="S3" s="294"/>
-      <c r="T3" s="295"/>
-      <c r="U3" s="295"/>
-      <c r="V3" s="295"/>
-      <c r="W3" s="295"/>
-      <c r="X3" s="295"/>
-      <c r="Y3" s="295"/>
-      <c r="Z3" s="296"/>
-      <c r="AA3" s="303"/>
-      <c r="AB3" s="304"/>
-      <c r="AC3" s="300" t="str">
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="246"/>
+      <c r="L3" s="246"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="306"/>
+      <c r="P3" s="307"/>
+      <c r="Q3" s="307"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="259"/>
+      <c r="AA3" s="297"/>
+      <c r="AB3" s="299"/>
+      <c r="AC3" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="301"/>
-      <c r="AE3" s="301"/>
-      <c r="AF3" s="302"/>
-      <c r="AG3" s="297" t="str">
+      <c r="AD3" s="313"/>
+      <c r="AE3" s="313"/>
+      <c r="AF3" s="314"/>
+      <c r="AG3" s="309" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="298"/>
-      <c r="AI3" s="299"/>
+      <c r="AH3" s="310"/>
+      <c r="AI3" s="311"/>
     </row>
     <row r="4" spans="1:35" s="66" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="170"/>
@@ -8400,7 +8400,7 @@
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="175"/>
       <c r="B11" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="175"/>
@@ -9596,6 +9596,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
@@ -9606,13 +9613,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -9638,163 +9638,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="121" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="303" t="str">
+      <c r="A1" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="251" t="str">
+      <c r="B1" s="298"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
-      <c r="N1" s="253"/>
-      <c r="O1" s="306" t="str">
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="300" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="307"/>
-      <c r="Q1" s="307"/>
-      <c r="R1" s="308"/>
-      <c r="S1" s="288" t="str">
+      <c r="P1" s="301"/>
+      <c r="Q1" s="301"/>
+      <c r="R1" s="302"/>
+      <c r="S1" s="251" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
-        <v>External Interface Design Document(JSON)</v>
-      </c>
-      <c r="T1" s="289"/>
-      <c r="U1" s="289"/>
-      <c r="V1" s="289"/>
-      <c r="W1" s="289"/>
-      <c r="X1" s="289"/>
-      <c r="Y1" s="289"/>
-      <c r="Z1" s="290"/>
-      <c r="AA1" s="303" t="str">
+        <v>External Interface Design(JSON)</v>
+      </c>
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
+      <c r="X1" s="252"/>
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="304"/>
-      <c r="AC1" s="300" t="str">
+      <c r="AB1" s="299"/>
+      <c r="AC1" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="301"/>
-      <c r="AE1" s="301"/>
-      <c r="AF1" s="302"/>
-      <c r="AG1" s="297">
+      <c r="AD1" s="313"/>
+      <c r="AE1" s="313"/>
+      <c r="AF1" s="314"/>
+      <c r="AG1" s="309">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="298"/>
-      <c r="AI1" s="299"/>
+      <c r="AH1" s="310"/>
+      <c r="AI1" s="311"/>
     </row>
     <row r="2" spans="1:35" s="121" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="303" t="str">
+      <c r="A2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="305"/>
-      <c r="C2" s="305"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="251" t="str">
+      <c r="B2" s="298"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="252"/>
-      <c r="K2" s="252"/>
-      <c r="L2" s="252"/>
-      <c r="M2" s="252"/>
-      <c r="N2" s="253"/>
-      <c r="O2" s="309"/>
-      <c r="P2" s="310"/>
-      <c r="Q2" s="310"/>
-      <c r="R2" s="311"/>
-      <c r="S2" s="291"/>
-      <c r="T2" s="292"/>
-      <c r="U2" s="292"/>
-      <c r="V2" s="292"/>
-      <c r="W2" s="292"/>
-      <c r="X2" s="292"/>
-      <c r="Y2" s="292"/>
-      <c r="Z2" s="293"/>
-      <c r="AA2" s="303" t="str">
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="246"/>
+      <c r="M2" s="246"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="303"/>
+      <c r="P2" s="304"/>
+      <c r="Q2" s="304"/>
+      <c r="R2" s="305"/>
+      <c r="S2" s="254"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="256"/>
+      <c r="AA2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="304"/>
-      <c r="AC2" s="300" t="str">
+      <c r="AB2" s="299"/>
+      <c r="AC2" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="301"/>
-      <c r="AE2" s="301"/>
-      <c r="AF2" s="302"/>
-      <c r="AG2" s="297" t="str">
+      <c r="AD2" s="313"/>
+      <c r="AE2" s="313"/>
+      <c r="AF2" s="314"/>
+      <c r="AG2" s="309" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="298"/>
-      <c r="AI2" s="299"/>
+      <c r="AH2" s="310"/>
+      <c r="AI2" s="311"/>
     </row>
     <row r="3" spans="1:35" s="121" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="303" t="str">
+      <c r="A3" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="305"/>
-      <c r="C3" s="305"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="251" t="str">
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Client Management System</v>
       </c>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="252"/>
-      <c r="L3" s="252"/>
-      <c r="M3" s="252"/>
-      <c r="N3" s="253"/>
-      <c r="O3" s="312"/>
-      <c r="P3" s="313"/>
-      <c r="Q3" s="313"/>
-      <c r="R3" s="314"/>
-      <c r="S3" s="294"/>
-      <c r="T3" s="295"/>
-      <c r="U3" s="295"/>
-      <c r="V3" s="295"/>
-      <c r="W3" s="295"/>
-      <c r="X3" s="295"/>
-      <c r="Y3" s="295"/>
-      <c r="Z3" s="296"/>
-      <c r="AA3" s="303"/>
-      <c r="AB3" s="304"/>
-      <c r="AC3" s="300" t="str">
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="246"/>
+      <c r="L3" s="246"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="306"/>
+      <c r="P3" s="307"/>
+      <c r="Q3" s="307"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="259"/>
+      <c r="AA3" s="297"/>
+      <c r="AB3" s="299"/>
+      <c r="AC3" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="301"/>
-      <c r="AE3" s="301"/>
-      <c r="AF3" s="302"/>
-      <c r="AG3" s="297" t="str">
+      <c r="AD3" s="313"/>
+      <c r="AE3" s="313"/>
+      <c r="AF3" s="314"/>
+      <c r="AG3" s="309" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="298"/>
-      <c r="AI3" s="299"/>
+      <c r="AH3" s="310"/>
+      <c r="AI3" s="311"/>
     </row>
     <row r="4" spans="1:35" s="121" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="100"/>
@@ -9816,12 +9816,12 @@
       <c r="C6" s="78"/>
     </row>
     <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="322" t="s">
+      <c r="A7" s="315" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="323"/>
-      <c r="C7" s="323"/>
-      <c r="D7" s="324"/>
+      <c r="B7" s="324"/>
+      <c r="C7" s="324"/>
+      <c r="D7" s="325"/>
       <c r="E7" s="123"/>
       <c r="F7" s="123"/>
       <c r="G7" s="123"/>
@@ -9834,82 +9834,82 @@
       <c r="N7" s="123"/>
       <c r="O7" s="123"/>
       <c r="P7" s="123"/>
-      <c r="Q7" s="356" t="s">
+      <c r="Q7" s="330" t="s">
         <v>75</v>
       </c>
-      <c r="R7" s="344"/>
-      <c r="S7" s="344"/>
-      <c r="T7" s="345"/>
-      <c r="U7" s="349" t="s">
+      <c r="R7" s="331"/>
+      <c r="S7" s="331"/>
+      <c r="T7" s="332"/>
+      <c r="U7" s="318" t="s">
         <v>48</v>
       </c>
-      <c r="V7" s="350"/>
-      <c r="W7" s="350"/>
-      <c r="X7" s="350"/>
-      <c r="Y7" s="350"/>
-      <c r="Z7" s="350"/>
-      <c r="AA7" s="350"/>
-      <c r="AB7" s="350"/>
-      <c r="AC7" s="350"/>
-      <c r="AD7" s="350"/>
-      <c r="AE7" s="350"/>
-      <c r="AF7" s="350"/>
-      <c r="AG7" s="350"/>
-      <c r="AH7" s="350"/>
-      <c r="AI7" s="351"/>
+      <c r="V7" s="319"/>
+      <c r="W7" s="319"/>
+      <c r="X7" s="319"/>
+      <c r="Y7" s="319"/>
+      <c r="Z7" s="319"/>
+      <c r="AA7" s="319"/>
+      <c r="AB7" s="319"/>
+      <c r="AC7" s="319"/>
+      <c r="AD7" s="319"/>
+      <c r="AE7" s="319"/>
+      <c r="AF7" s="319"/>
+      <c r="AG7" s="319"/>
+      <c r="AH7" s="319"/>
+      <c r="AI7" s="320"/>
     </row>
     <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="352" t="s">
+      <c r="A8" s="326" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="353"/>
-      <c r="C8" s="353"/>
-      <c r="D8" s="354"/>
-      <c r="E8" s="355" t="s">
+      <c r="B8" s="327"/>
+      <c r="C8" s="327"/>
+      <c r="D8" s="328"/>
+      <c r="E8" s="329" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="335"/>
-      <c r="G8" s="335"/>
-      <c r="H8" s="335"/>
-      <c r="I8" s="335"/>
-      <c r="J8" s="335"/>
-      <c r="K8" s="335"/>
-      <c r="L8" s="335"/>
-      <c r="M8" s="335"/>
-      <c r="N8" s="335"/>
-      <c r="O8" s="335"/>
-      <c r="P8" s="335"/>
-      <c r="Q8" s="322" t="s">
+      <c r="F8" s="322"/>
+      <c r="G8" s="322"/>
+      <c r="H8" s="322"/>
+      <c r="I8" s="322"/>
+      <c r="J8" s="322"/>
+      <c r="K8" s="322"/>
+      <c r="L8" s="322"/>
+      <c r="M8" s="322"/>
+      <c r="N8" s="322"/>
+      <c r="O8" s="322"/>
+      <c r="P8" s="322"/>
+      <c r="Q8" s="315" t="s">
         <v>49</v>
       </c>
-      <c r="R8" s="323"/>
-      <c r="S8" s="323"/>
-      <c r="T8" s="324"/>
-      <c r="U8" s="334" t="s">
+      <c r="R8" s="324"/>
+      <c r="S8" s="324"/>
+      <c r="T8" s="325"/>
+      <c r="U8" s="321" t="s">
         <v>50</v>
       </c>
-      <c r="V8" s="335"/>
-      <c r="W8" s="335"/>
-      <c r="X8" s="335"/>
-      <c r="Y8" s="335"/>
-      <c r="Z8" s="335"/>
-      <c r="AA8" s="335"/>
-      <c r="AB8" s="335"/>
-      <c r="AC8" s="335"/>
-      <c r="AD8" s="335"/>
-      <c r="AE8" s="335"/>
-      <c r="AF8" s="335"/>
-      <c r="AG8" s="335"/>
-      <c r="AH8" s="335"/>
-      <c r="AI8" s="336"/>
+      <c r="V8" s="322"/>
+      <c r="W8" s="322"/>
+      <c r="X8" s="322"/>
+      <c r="Y8" s="322"/>
+      <c r="Z8" s="322"/>
+      <c r="AA8" s="322"/>
+      <c r="AB8" s="322"/>
+      <c r="AC8" s="322"/>
+      <c r="AD8" s="322"/>
+      <c r="AE8" s="322"/>
+      <c r="AF8" s="322"/>
+      <c r="AG8" s="322"/>
+      <c r="AH8" s="322"/>
+      <c r="AI8" s="323"/>
     </row>
     <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="322" t="s">
+      <c r="A9" s="315" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="323"/>
-      <c r="C9" s="323"/>
-      <c r="D9" s="324"/>
+      <c r="B9" s="324"/>
+      <c r="C9" s="324"/>
+      <c r="D9" s="325"/>
       <c r="E9" s="125"/>
       <c r="F9" s="125"/>
       <c r="G9" s="125"/>
@@ -10095,7 +10095,7 @@
       <c r="AI13" s="136"/>
     </row>
     <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="322" t="s">
+      <c r="A14" s="315" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="316"/>
@@ -10245,12 +10245,12 @@
       <c r="AI17" s="136"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="337" t="s">
+      <c r="A18" s="333" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="338"/>
-      <c r="C18" s="338"/>
-      <c r="D18" s="339"/>
+      <c r="B18" s="334"/>
+      <c r="C18" s="334"/>
+      <c r="D18" s="335"/>
       <c r="E18" s="138"/>
       <c r="F18" s="139"/>
       <c r="G18" s="111"/>
@@ -10263,12 +10263,12 @@
       <c r="N18" s="111"/>
       <c r="O18" s="109"/>
       <c r="P18" s="111"/>
-      <c r="Q18" s="337" t="s">
+      <c r="Q18" s="333" t="s">
         <v>56</v>
       </c>
-      <c r="R18" s="338"/>
-      <c r="S18" s="338"/>
-      <c r="T18" s="339"/>
+      <c r="R18" s="334"/>
+      <c r="S18" s="334"/>
+      <c r="T18" s="335"/>
       <c r="U18" s="129"/>
       <c r="V18" s="129"/>
       <c r="W18" s="129"/>
@@ -10368,55 +10368,55 @@
       <c r="AI20" s="130"/>
     </row>
     <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="322" t="s">
+      <c r="A21" s="315" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="323"/>
-      <c r="C21" s="323"/>
-      <c r="D21" s="324"/>
-      <c r="E21" s="334" t="s">
+      <c r="B21" s="324"/>
+      <c r="C21" s="324"/>
+      <c r="D21" s="325"/>
+      <c r="E21" s="321" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="335"/>
-      <c r="G21" s="335"/>
-      <c r="H21" s="335"/>
-      <c r="I21" s="335"/>
-      <c r="J21" s="335"/>
-      <c r="K21" s="335"/>
-      <c r="L21" s="335"/>
-      <c r="M21" s="335"/>
-      <c r="N21" s="335"/>
-      <c r="O21" s="335"/>
-      <c r="P21" s="336"/>
-      <c r="Q21" s="322" t="s">
+      <c r="F21" s="322"/>
+      <c r="G21" s="322"/>
+      <c r="H21" s="322"/>
+      <c r="I21" s="322"/>
+      <c r="J21" s="322"/>
+      <c r="K21" s="322"/>
+      <c r="L21" s="322"/>
+      <c r="M21" s="322"/>
+      <c r="N21" s="322"/>
+      <c r="O21" s="322"/>
+      <c r="P21" s="323"/>
+      <c r="Q21" s="315" t="s">
         <v>61</v>
       </c>
-      <c r="R21" s="323"/>
-      <c r="S21" s="323"/>
-      <c r="T21" s="324"/>
-      <c r="U21" s="340"/>
-      <c r="V21" s="341"/>
-      <c r="W21" s="341"/>
-      <c r="X21" s="341"/>
-      <c r="Y21" s="341"/>
-      <c r="Z21" s="341"/>
-      <c r="AA21" s="341"/>
-      <c r="AB21" s="341"/>
-      <c r="AC21" s="341"/>
-      <c r="AD21" s="341"/>
-      <c r="AE21" s="341"/>
-      <c r="AF21" s="341"/>
-      <c r="AG21" s="341"/>
-      <c r="AH21" s="341"/>
-      <c r="AI21" s="342"/>
+      <c r="R21" s="324"/>
+      <c r="S21" s="324"/>
+      <c r="T21" s="325"/>
+      <c r="U21" s="336"/>
+      <c r="V21" s="337"/>
+      <c r="W21" s="337"/>
+      <c r="X21" s="337"/>
+      <c r="Y21" s="337"/>
+      <c r="Z21" s="337"/>
+      <c r="AA21" s="337"/>
+      <c r="AB21" s="337"/>
+      <c r="AC21" s="337"/>
+      <c r="AD21" s="337"/>
+      <c r="AE21" s="337"/>
+      <c r="AF21" s="337"/>
+      <c r="AG21" s="337"/>
+      <c r="AH21" s="337"/>
+      <c r="AI21" s="338"/>
     </row>
     <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="343" t="s">
+      <c r="A22" s="339" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="344"/>
-      <c r="C22" s="344"/>
-      <c r="D22" s="345"/>
+      <c r="B22" s="331"/>
+      <c r="C22" s="331"/>
+      <c r="D22" s="332"/>
       <c r="E22" s="148"/>
       <c r="F22" s="149"/>
       <c r="G22" s="126"/>
@@ -10429,12 +10429,12 @@
       <c r="N22" s="126"/>
       <c r="O22" s="125"/>
       <c r="P22" s="126"/>
-      <c r="Q22" s="343" t="s">
+      <c r="Q22" s="339" t="s">
         <v>63</v>
       </c>
-      <c r="R22" s="344"/>
-      <c r="S22" s="344"/>
-      <c r="T22" s="345"/>
+      <c r="R22" s="331"/>
+      <c r="S22" s="331"/>
+      <c r="T22" s="332"/>
       <c r="U22" s="102"/>
       <c r="V22" s="103"/>
       <c r="W22" s="150"/>
@@ -10497,36 +10497,36 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="331" t="s">
+      <c r="A24" s="354" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="332"/>
-      <c r="C24" s="332"/>
-      <c r="D24" s="333"/>
-      <c r="E24" s="334" t="s">
+      <c r="B24" s="355"/>
+      <c r="C24" s="355"/>
+      <c r="D24" s="356"/>
+      <c r="E24" s="321" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="335"/>
-      <c r="G24" s="335"/>
-      <c r="H24" s="335"/>
-      <c r="I24" s="335"/>
-      <c r="J24" s="335"/>
-      <c r="K24" s="335"/>
-      <c r="L24" s="335"/>
-      <c r="M24" s="335"/>
-      <c r="N24" s="335"/>
-      <c r="O24" s="335"/>
-      <c r="P24" s="336"/>
-      <c r="Q24" s="346" t="s">
+      <c r="F24" s="322"/>
+      <c r="G24" s="322"/>
+      <c r="H24" s="322"/>
+      <c r="I24" s="322"/>
+      <c r="J24" s="322"/>
+      <c r="K24" s="322"/>
+      <c r="L24" s="322"/>
+      <c r="M24" s="322"/>
+      <c r="N24" s="322"/>
+      <c r="O24" s="322"/>
+      <c r="P24" s="323"/>
+      <c r="Q24" s="340" t="s">
         <v>66</v>
       </c>
-      <c r="R24" s="347"/>
-      <c r="S24" s="347"/>
-      <c r="T24" s="348"/>
-      <c r="U24" s="320"/>
-      <c r="V24" s="321"/>
-      <c r="W24" s="321"/>
-      <c r="X24" s="321"/>
+      <c r="R24" s="341"/>
+      <c r="S24" s="341"/>
+      <c r="T24" s="342"/>
+      <c r="U24" s="346"/>
+      <c r="V24" s="347"/>
+      <c r="W24" s="347"/>
+      <c r="X24" s="347"/>
       <c r="Y24" s="157" t="s">
         <v>67</v>
       </c>
@@ -10542,26 +10542,26 @@
       <c r="AI24" s="159"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="327" t="s">
+      <c r="A25" s="350" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="328"/>
-      <c r="C25" s="328"/>
-      <c r="D25" s="329"/>
+      <c r="B25" s="351"/>
+      <c r="C25" s="351"/>
+      <c r="D25" s="352"/>
       <c r="E25" s="148"/>
       <c r="F25" s="160"/>
       <c r="G25" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="318"/>
-      <c r="I25" s="319"/>
-      <c r="J25" s="319"/>
-      <c r="K25" s="319"/>
-      <c r="L25" s="319"/>
-      <c r="M25" s="319"/>
-      <c r="N25" s="319"/>
-      <c r="O25" s="319"/>
-      <c r="P25" s="319"/>
+      <c r="H25" s="344"/>
+      <c r="I25" s="345"/>
+      <c r="J25" s="345"/>
+      <c r="K25" s="345"/>
+      <c r="L25" s="345"/>
+      <c r="M25" s="345"/>
+      <c r="N25" s="345"/>
+      <c r="O25" s="345"/>
+      <c r="P25" s="345"/>
       <c r="Q25" s="126" t="s">
         <v>58</v>
       </c>
@@ -10570,15 +10570,15 @@
       <c r="T25" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="U25" s="330"/>
-      <c r="V25" s="330"/>
-      <c r="W25" s="330"/>
-      <c r="X25" s="330"/>
-      <c r="Y25" s="330"/>
-      <c r="Z25" s="330"/>
-      <c r="AA25" s="330"/>
-      <c r="AB25" s="330"/>
-      <c r="AC25" s="330"/>
+      <c r="U25" s="353"/>
+      <c r="V25" s="353"/>
+      <c r="W25" s="353"/>
+      <c r="X25" s="353"/>
+      <c r="Y25" s="353"/>
+      <c r="Z25" s="353"/>
+      <c r="AA25" s="353"/>
+      <c r="AB25" s="353"/>
+      <c r="AC25" s="353"/>
       <c r="AD25" s="126" t="s">
         <v>58</v>
       </c>
@@ -10598,15 +10598,15 @@
       <c r="G26" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="326"/>
-      <c r="I26" s="326"/>
-      <c r="J26" s="326"/>
-      <c r="K26" s="326"/>
-      <c r="L26" s="326"/>
-      <c r="M26" s="326"/>
-      <c r="N26" s="326"/>
-      <c r="O26" s="326"/>
-      <c r="P26" s="326"/>
+      <c r="H26" s="349"/>
+      <c r="I26" s="349"/>
+      <c r="J26" s="349"/>
+      <c r="K26" s="349"/>
+      <c r="L26" s="349"/>
+      <c r="M26" s="349"/>
+      <c r="N26" s="349"/>
+      <c r="O26" s="349"/>
+      <c r="P26" s="349"/>
       <c r="Q26" s="120" t="s">
         <v>58</v>
       </c>
@@ -10615,15 +10615,15 @@
       <c r="T26" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="U26" s="326"/>
-      <c r="V26" s="326"/>
-      <c r="W26" s="326"/>
-      <c r="X26" s="326"/>
-      <c r="Y26" s="326"/>
-      <c r="Z26" s="326"/>
-      <c r="AA26" s="326"/>
-      <c r="AB26" s="326"/>
-      <c r="AC26" s="326"/>
+      <c r="U26" s="349"/>
+      <c r="V26" s="349"/>
+      <c r="W26" s="349"/>
+      <c r="X26" s="349"/>
+      <c r="Y26" s="349"/>
+      <c r="Z26" s="349"/>
+      <c r="AA26" s="349"/>
+      <c r="AB26" s="349"/>
+      <c r="AC26" s="349"/>
       <c r="AD26" s="120" t="s">
         <v>58</v>
       </c>
@@ -10643,15 +10643,15 @@
       <c r="G27" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="325"/>
-      <c r="I27" s="325"/>
-      <c r="J27" s="325"/>
-      <c r="K27" s="325"/>
-      <c r="L27" s="325"/>
-      <c r="M27" s="325"/>
-      <c r="N27" s="325"/>
-      <c r="O27" s="325"/>
-      <c r="P27" s="325"/>
+      <c r="H27" s="348"/>
+      <c r="I27" s="348"/>
+      <c r="J27" s="348"/>
+      <c r="K27" s="348"/>
+      <c r="L27" s="348"/>
+      <c r="M27" s="348"/>
+      <c r="N27" s="348"/>
+      <c r="O27" s="348"/>
+      <c r="P27" s="348"/>
       <c r="Q27" s="134" t="s">
         <v>58</v>
       </c>
@@ -10660,26 +10660,26 @@
       <c r="T27" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="U27" s="325"/>
-      <c r="V27" s="325"/>
-      <c r="W27" s="325"/>
-      <c r="X27" s="325"/>
-      <c r="Y27" s="325"/>
-      <c r="Z27" s="325"/>
-      <c r="AA27" s="325"/>
-      <c r="AB27" s="325"/>
-      <c r="AC27" s="325"/>
-      <c r="AD27" s="325"/>
-      <c r="AE27" s="325"/>
-      <c r="AF27" s="325"/>
-      <c r="AG27" s="325"/>
-      <c r="AH27" s="325"/>
+      <c r="U27" s="348"/>
+      <c r="V27" s="348"/>
+      <c r="W27" s="348"/>
+      <c r="X27" s="348"/>
+      <c r="Y27" s="348"/>
+      <c r="Z27" s="348"/>
+      <c r="AA27" s="348"/>
+      <c r="AB27" s="348"/>
+      <c r="AC27" s="348"/>
+      <c r="AD27" s="348"/>
+      <c r="AE27" s="348"/>
+      <c r="AF27" s="348"/>
+      <c r="AG27" s="348"/>
+      <c r="AH27" s="348"/>
       <c r="AI27" s="136" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="315" t="s">
+      <c r="A28" s="343" t="s">
         <v>76</v>
       </c>
       <c r="B28" s="316"/>
@@ -10830,21 +10830,23 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -10859,23 +10861,21 @@
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="E21:P21"/>
     <mergeCell ref="E24:P24"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -11418,163 +11418,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="79" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="303" t="str">
+      <c r="A1" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="251" t="str">
+      <c r="B1" s="298"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
-      <c r="N1" s="253"/>
-      <c r="O1" s="306" t="str">
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="300" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="307"/>
-      <c r="Q1" s="307"/>
-      <c r="R1" s="308"/>
-      <c r="S1" s="288" t="str">
+      <c r="P1" s="301"/>
+      <c r="Q1" s="301"/>
+      <c r="R1" s="302"/>
+      <c r="S1" s="251" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
-        <v>External Interface Design Document(JSON)</v>
-      </c>
-      <c r="T1" s="289"/>
-      <c r="U1" s="289"/>
-      <c r="V1" s="289"/>
-      <c r="W1" s="289"/>
-      <c r="X1" s="289"/>
-      <c r="Y1" s="289"/>
-      <c r="Z1" s="290"/>
-      <c r="AA1" s="303" t="str">
+        <v>External Interface Design(JSON)</v>
+      </c>
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
+      <c r="X1" s="252"/>
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="304"/>
-      <c r="AC1" s="300" t="str">
+      <c r="AB1" s="299"/>
+      <c r="AC1" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="301"/>
-      <c r="AE1" s="301"/>
-      <c r="AF1" s="302"/>
-      <c r="AG1" s="297">
+      <c r="AD1" s="313"/>
+      <c r="AE1" s="313"/>
+      <c r="AF1" s="314"/>
+      <c r="AG1" s="309">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="298"/>
-      <c r="AI1" s="299"/>
+      <c r="AH1" s="310"/>
+      <c r="AI1" s="311"/>
     </row>
     <row r="2" spans="1:36" s="79" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="303" t="str">
+      <c r="A2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="305"/>
-      <c r="C2" s="305"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="251" t="str">
+      <c r="B2" s="298"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="252"/>
-      <c r="K2" s="252"/>
-      <c r="L2" s="252"/>
-      <c r="M2" s="252"/>
-      <c r="N2" s="253"/>
-      <c r="O2" s="309"/>
-      <c r="P2" s="310"/>
-      <c r="Q2" s="310"/>
-      <c r="R2" s="311"/>
-      <c r="S2" s="291"/>
-      <c r="T2" s="292"/>
-      <c r="U2" s="292"/>
-      <c r="V2" s="292"/>
-      <c r="W2" s="292"/>
-      <c r="X2" s="292"/>
-      <c r="Y2" s="292"/>
-      <c r="Z2" s="293"/>
-      <c r="AA2" s="303" t="str">
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="246"/>
+      <c r="M2" s="246"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="303"/>
+      <c r="P2" s="304"/>
+      <c r="Q2" s="304"/>
+      <c r="R2" s="305"/>
+      <c r="S2" s="254"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="256"/>
+      <c r="AA2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="304"/>
-      <c r="AC2" s="300" t="str">
+      <c r="AB2" s="299"/>
+      <c r="AC2" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="301"/>
-      <c r="AE2" s="301"/>
-      <c r="AF2" s="302"/>
-      <c r="AG2" s="297" t="str">
+      <c r="AD2" s="313"/>
+      <c r="AE2" s="313"/>
+      <c r="AF2" s="314"/>
+      <c r="AG2" s="309" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="298"/>
-      <c r="AI2" s="299"/>
+      <c r="AH2" s="310"/>
+      <c r="AI2" s="311"/>
     </row>
     <row r="3" spans="1:36" s="79" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="303" t="str">
+      <c r="A3" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="305"/>
-      <c r="C3" s="305"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="251" t="str">
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Client Management System</v>
       </c>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="252"/>
-      <c r="L3" s="252"/>
-      <c r="M3" s="252"/>
-      <c r="N3" s="253"/>
-      <c r="O3" s="312"/>
-      <c r="P3" s="313"/>
-      <c r="Q3" s="313"/>
-      <c r="R3" s="314"/>
-      <c r="S3" s="294"/>
-      <c r="T3" s="295"/>
-      <c r="U3" s="295"/>
-      <c r="V3" s="295"/>
-      <c r="W3" s="295"/>
-      <c r="X3" s="295"/>
-      <c r="Y3" s="295"/>
-      <c r="Z3" s="296"/>
-      <c r="AA3" s="303"/>
-      <c r="AB3" s="304"/>
-      <c r="AC3" s="300" t="str">
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="246"/>
+      <c r="L3" s="246"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="306"/>
+      <c r="P3" s="307"/>
+      <c r="Q3" s="307"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="259"/>
+      <c r="AA3" s="297"/>
+      <c r="AB3" s="299"/>
+      <c r="AC3" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="301"/>
-      <c r="AE3" s="301"/>
-      <c r="AF3" s="302"/>
-      <c r="AG3" s="297" t="str">
+      <c r="AD3" s="313"/>
+      <c r="AE3" s="313"/>
+      <c r="AF3" s="314"/>
+      <c r="AG3" s="309" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="298"/>
-      <c r="AI3" s="299"/>
+      <c r="AH3" s="310"/>
+      <c r="AI3" s="311"/>
     </row>
     <row r="4" spans="1:36" s="79" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="80"/>
@@ -11644,461 +11644,461 @@
       <c r="C7" s="92"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="423" t="s">
+      <c r="A8" s="375" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="373"/>
-      <c r="C8" s="373"/>
-      <c r="D8" s="373"/>
-      <c r="E8" s="373"/>
-      <c r="F8" s="373"/>
-      <c r="G8" s="373"/>
-      <c r="H8" s="373"/>
-      <c r="I8" s="373"/>
-      <c r="J8" s="373"/>
-      <c r="K8" s="373"/>
-      <c r="L8" s="373"/>
-      <c r="M8" s="373"/>
-      <c r="N8" s="373"/>
-      <c r="O8" s="373"/>
-      <c r="P8" s="373"/>
-      <c r="Q8" s="373"/>
-      <c r="R8" s="373"/>
-      <c r="S8" s="373"/>
-      <c r="T8" s="373"/>
-      <c r="U8" s="373"/>
-      <c r="V8" s="373"/>
-      <c r="W8" s="373"/>
-      <c r="X8" s="373"/>
-      <c r="Y8" s="373"/>
-      <c r="Z8" s="373"/>
-      <c r="AA8" s="373"/>
-      <c r="AB8" s="424"/>
-      <c r="AC8" s="372" t="s">
+      <c r="B8" s="376"/>
+      <c r="C8" s="376"/>
+      <c r="D8" s="376"/>
+      <c r="E8" s="376"/>
+      <c r="F8" s="376"/>
+      <c r="G8" s="376"/>
+      <c r="H8" s="376"/>
+      <c r="I8" s="376"/>
+      <c r="J8" s="376"/>
+      <c r="K8" s="376"/>
+      <c r="L8" s="376"/>
+      <c r="M8" s="376"/>
+      <c r="N8" s="376"/>
+      <c r="O8" s="376"/>
+      <c r="P8" s="376"/>
+      <c r="Q8" s="376"/>
+      <c r="R8" s="376"/>
+      <c r="S8" s="376"/>
+      <c r="T8" s="376"/>
+      <c r="U8" s="376"/>
+      <c r="V8" s="376"/>
+      <c r="W8" s="376"/>
+      <c r="X8" s="376"/>
+      <c r="Y8" s="376"/>
+      <c r="Z8" s="376"/>
+      <c r="AA8" s="376"/>
+      <c r="AB8" s="377"/>
+      <c r="AC8" s="441" t="s">
         <v>35</v>
       </c>
-      <c r="AD8" s="373"/>
-      <c r="AE8" s="374"/>
-      <c r="AF8" s="369"/>
-      <c r="AG8" s="370"/>
-      <c r="AH8" s="370"/>
-      <c r="AI8" s="371"/>
+      <c r="AD8" s="376"/>
+      <c r="AE8" s="442"/>
+      <c r="AF8" s="438"/>
+      <c r="AG8" s="439"/>
+      <c r="AH8" s="439"/>
+      <c r="AI8" s="440"/>
     </row>
     <row r="9" spans="1:36" s="94" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="419" t="s">
+      <c r="B9" s="360" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="261"/>
-      <c r="D9" s="261"/>
-      <c r="E9" s="261"/>
-      <c r="F9" s="262"/>
-      <c r="G9" s="419" t="s">
+      <c r="C9" s="270"/>
+      <c r="D9" s="270"/>
+      <c r="E9" s="270"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="360" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="420"/>
-      <c r="I9" s="422"/>
-      <c r="J9" s="419" t="s">
+      <c r="H9" s="361"/>
+      <c r="I9" s="362"/>
+      <c r="J9" s="360" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="420"/>
-      <c r="L9" s="420"/>
-      <c r="M9" s="420"/>
-      <c r="N9" s="420"/>
-      <c r="O9" s="420"/>
-      <c r="P9" s="422"/>
-      <c r="Q9" s="437" t="s">
+      <c r="K9" s="361"/>
+      <c r="L9" s="361"/>
+      <c r="M9" s="361"/>
+      <c r="N9" s="361"/>
+      <c r="O9" s="361"/>
+      <c r="P9" s="362"/>
+      <c r="Q9" s="365" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="439"/>
-      <c r="S9" s="437" t="s">
+      <c r="R9" s="367"/>
+      <c r="S9" s="365" t="s">
         <v>41</v>
       </c>
-      <c r="T9" s="438"/>
-      <c r="U9" s="439"/>
-      <c r="V9" s="419" t="s">
+      <c r="T9" s="366"/>
+      <c r="U9" s="367"/>
+      <c r="V9" s="360" t="s">
         <v>42</v>
       </c>
-      <c r="W9" s="420"/>
-      <c r="X9" s="420"/>
-      <c r="Y9" s="420"/>
-      <c r="Z9" s="420"/>
-      <c r="AA9" s="420"/>
-      <c r="AB9" s="421"/>
-      <c r="AC9" s="431" t="s">
+      <c r="W9" s="361"/>
+      <c r="X9" s="361"/>
+      <c r="Y9" s="361"/>
+      <c r="Z9" s="361"/>
+      <c r="AA9" s="361"/>
+      <c r="AB9" s="374"/>
+      <c r="AC9" s="386" t="s">
         <v>43</v>
       </c>
-      <c r="AD9" s="432"/>
-      <c r="AE9" s="432"/>
-      <c r="AF9" s="432"/>
-      <c r="AG9" s="432"/>
-      <c r="AH9" s="433" t="s">
+      <c r="AD9" s="387"/>
+      <c r="AE9" s="387"/>
+      <c r="AF9" s="387"/>
+      <c r="AG9" s="387"/>
+      <c r="AH9" s="388" t="s">
         <v>77</v>
       </c>
-      <c r="AI9" s="433"/>
+      <c r="AI9" s="388"/>
     </row>
     <row r="10" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="95">
         <v>1</v>
       </c>
-      <c r="B10" s="382" t="s">
+      <c r="B10" s="425" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="383"/>
-      <c r="D10" s="383"/>
-      <c r="E10" s="383"/>
-      <c r="F10" s="384"/>
-      <c r="G10" s="428"/>
-      <c r="H10" s="429"/>
-      <c r="I10" s="430"/>
-      <c r="J10" s="440"/>
-      <c r="K10" s="441"/>
-      <c r="L10" s="441"/>
-      <c r="M10" s="441"/>
-      <c r="N10" s="441"/>
-      <c r="O10" s="441"/>
-      <c r="P10" s="442"/>
-      <c r="Q10" s="391"/>
-      <c r="R10" s="393"/>
-      <c r="S10" s="391"/>
-      <c r="T10" s="392"/>
-      <c r="U10" s="393"/>
-      <c r="V10" s="434"/>
-      <c r="W10" s="435"/>
-      <c r="X10" s="435"/>
-      <c r="Y10" s="435"/>
-      <c r="Z10" s="435"/>
-      <c r="AA10" s="435"/>
-      <c r="AB10" s="436"/>
-      <c r="AC10" s="416"/>
-      <c r="AD10" s="360"/>
-      <c r="AE10" s="361"/>
-      <c r="AF10" s="361"/>
-      <c r="AG10" s="362"/>
-      <c r="AH10" s="380"/>
-      <c r="AI10" s="381"/>
+      <c r="C10" s="426"/>
+      <c r="D10" s="426"/>
+      <c r="E10" s="426"/>
+      <c r="F10" s="427"/>
+      <c r="G10" s="383"/>
+      <c r="H10" s="384"/>
+      <c r="I10" s="385"/>
+      <c r="J10" s="369"/>
+      <c r="K10" s="370"/>
+      <c r="L10" s="370"/>
+      <c r="M10" s="370"/>
+      <c r="N10" s="370"/>
+      <c r="O10" s="370"/>
+      <c r="P10" s="371"/>
+      <c r="Q10" s="381"/>
+      <c r="R10" s="382"/>
+      <c r="S10" s="381"/>
+      <c r="T10" s="428"/>
+      <c r="U10" s="382"/>
+      <c r="V10" s="389"/>
+      <c r="W10" s="390"/>
+      <c r="X10" s="390"/>
+      <c r="Y10" s="390"/>
+      <c r="Z10" s="390"/>
+      <c r="AA10" s="390"/>
+      <c r="AB10" s="391"/>
+      <c r="AC10" s="420"/>
+      <c r="AD10" s="432"/>
+      <c r="AE10" s="433"/>
+      <c r="AF10" s="433"/>
+      <c r="AG10" s="434"/>
+      <c r="AH10" s="423"/>
+      <c r="AI10" s="424"/>
     </row>
     <row r="11" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="96">
         <v>2</v>
       </c>
-      <c r="B11" s="385"/>
-      <c r="C11" s="386"/>
-      <c r="D11" s="386"/>
-      <c r="E11" s="386"/>
-      <c r="F11" s="387"/>
-      <c r="G11" s="425"/>
-      <c r="H11" s="426"/>
-      <c r="I11" s="427"/>
-      <c r="J11" s="385"/>
-      <c r="K11" s="386"/>
-      <c r="L11" s="386"/>
-      <c r="M11" s="386"/>
-      <c r="N11" s="386"/>
-      <c r="O11" s="386"/>
-      <c r="P11" s="387"/>
-      <c r="Q11" s="394"/>
-      <c r="R11" s="396"/>
-      <c r="S11" s="394"/>
-      <c r="T11" s="395"/>
-      <c r="U11" s="396"/>
-      <c r="V11" s="377"/>
-      <c r="W11" s="378"/>
-      <c r="X11" s="378"/>
-      <c r="Y11" s="378"/>
-      <c r="Z11" s="378"/>
-      <c r="AA11" s="378"/>
-      <c r="AB11" s="379"/>
-      <c r="AC11" s="417"/>
-      <c r="AD11" s="363"/>
-      <c r="AE11" s="364"/>
-      <c r="AF11" s="364"/>
-      <c r="AG11" s="365"/>
-      <c r="AH11" s="375"/>
-      <c r="AI11" s="376"/>
+      <c r="B11" s="357"/>
+      <c r="C11" s="358"/>
+      <c r="D11" s="358"/>
+      <c r="E11" s="358"/>
+      <c r="F11" s="359"/>
+      <c r="G11" s="378"/>
+      <c r="H11" s="379"/>
+      <c r="I11" s="380"/>
+      <c r="J11" s="357"/>
+      <c r="K11" s="358"/>
+      <c r="L11" s="358"/>
+      <c r="M11" s="358"/>
+      <c r="N11" s="358"/>
+      <c r="O11" s="358"/>
+      <c r="P11" s="359"/>
+      <c r="Q11" s="363"/>
+      <c r="R11" s="364"/>
+      <c r="S11" s="363"/>
+      <c r="T11" s="368"/>
+      <c r="U11" s="364"/>
+      <c r="V11" s="392"/>
+      <c r="W11" s="393"/>
+      <c r="X11" s="393"/>
+      <c r="Y11" s="393"/>
+      <c r="Z11" s="393"/>
+      <c r="AA11" s="393"/>
+      <c r="AB11" s="394"/>
+      <c r="AC11" s="421"/>
+      <c r="AD11" s="435"/>
+      <c r="AE11" s="436"/>
+      <c r="AF11" s="436"/>
+      <c r="AG11" s="437"/>
+      <c r="AH11" s="372"/>
+      <c r="AI11" s="373"/>
     </row>
     <row r="12" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="96">
         <v>3</v>
       </c>
-      <c r="B12" s="385"/>
-      <c r="C12" s="386"/>
-      <c r="D12" s="386"/>
-      <c r="E12" s="386"/>
-      <c r="F12" s="387"/>
-      <c r="G12" s="425"/>
-      <c r="H12" s="426"/>
-      <c r="I12" s="427"/>
-      <c r="J12" s="385"/>
-      <c r="K12" s="386"/>
-      <c r="L12" s="386"/>
-      <c r="M12" s="386"/>
-      <c r="N12" s="386"/>
-      <c r="O12" s="386"/>
-      <c r="P12" s="387"/>
-      <c r="Q12" s="394"/>
-      <c r="R12" s="396"/>
-      <c r="S12" s="394"/>
-      <c r="T12" s="395"/>
-      <c r="U12" s="396"/>
-      <c r="V12" s="377"/>
-      <c r="W12" s="378"/>
-      <c r="X12" s="378"/>
-      <c r="Y12" s="378"/>
-      <c r="Z12" s="378"/>
-      <c r="AA12" s="378"/>
-      <c r="AB12" s="379"/>
-      <c r="AC12" s="417"/>
-      <c r="AD12" s="366"/>
-      <c r="AE12" s="367"/>
-      <c r="AF12" s="367"/>
-      <c r="AG12" s="368"/>
-      <c r="AH12" s="375"/>
-      <c r="AI12" s="376"/>
+      <c r="B12" s="357"/>
+      <c r="C12" s="358"/>
+      <c r="D12" s="358"/>
+      <c r="E12" s="358"/>
+      <c r="F12" s="359"/>
+      <c r="G12" s="378"/>
+      <c r="H12" s="379"/>
+      <c r="I12" s="380"/>
+      <c r="J12" s="357"/>
+      <c r="K12" s="358"/>
+      <c r="L12" s="358"/>
+      <c r="M12" s="358"/>
+      <c r="N12" s="358"/>
+      <c r="O12" s="358"/>
+      <c r="P12" s="359"/>
+      <c r="Q12" s="363"/>
+      <c r="R12" s="364"/>
+      <c r="S12" s="363"/>
+      <c r="T12" s="368"/>
+      <c r="U12" s="364"/>
+      <c r="V12" s="392"/>
+      <c r="W12" s="393"/>
+      <c r="X12" s="393"/>
+      <c r="Y12" s="393"/>
+      <c r="Z12" s="393"/>
+      <c r="AA12" s="393"/>
+      <c r="AB12" s="394"/>
+      <c r="AC12" s="421"/>
+      <c r="AD12" s="395"/>
+      <c r="AE12" s="396"/>
+      <c r="AF12" s="396"/>
+      <c r="AG12" s="397"/>
+      <c r="AH12" s="372"/>
+      <c r="AI12" s="373"/>
     </row>
     <row r="13" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="96">
         <v>4</v>
       </c>
-      <c r="B13" s="385"/>
-      <c r="C13" s="386"/>
-      <c r="D13" s="386"/>
-      <c r="E13" s="386"/>
-      <c r="F13" s="387"/>
-      <c r="G13" s="425"/>
-      <c r="H13" s="426"/>
-      <c r="I13" s="427"/>
-      <c r="J13" s="385"/>
-      <c r="K13" s="386"/>
-      <c r="L13" s="386"/>
-      <c r="M13" s="386"/>
-      <c r="N13" s="386"/>
-      <c r="O13" s="386"/>
-      <c r="P13" s="387"/>
-      <c r="Q13" s="394"/>
-      <c r="R13" s="396"/>
-      <c r="S13" s="394"/>
-      <c r="T13" s="395"/>
-      <c r="U13" s="396"/>
-      <c r="V13" s="377"/>
-      <c r="W13" s="378"/>
-      <c r="X13" s="378"/>
-      <c r="Y13" s="378"/>
-      <c r="Z13" s="378"/>
-      <c r="AA13" s="378"/>
-      <c r="AB13" s="379"/>
-      <c r="AC13" s="417"/>
-      <c r="AD13" s="366"/>
-      <c r="AE13" s="367"/>
-      <c r="AF13" s="367"/>
-      <c r="AG13" s="368"/>
-      <c r="AH13" s="375"/>
-      <c r="AI13" s="376"/>
+      <c r="B13" s="357"/>
+      <c r="C13" s="358"/>
+      <c r="D13" s="358"/>
+      <c r="E13" s="358"/>
+      <c r="F13" s="359"/>
+      <c r="G13" s="378"/>
+      <c r="H13" s="379"/>
+      <c r="I13" s="380"/>
+      <c r="J13" s="357"/>
+      <c r="K13" s="358"/>
+      <c r="L13" s="358"/>
+      <c r="M13" s="358"/>
+      <c r="N13" s="358"/>
+      <c r="O13" s="358"/>
+      <c r="P13" s="359"/>
+      <c r="Q13" s="363"/>
+      <c r="R13" s="364"/>
+      <c r="S13" s="363"/>
+      <c r="T13" s="368"/>
+      <c r="U13" s="364"/>
+      <c r="V13" s="392"/>
+      <c r="W13" s="393"/>
+      <c r="X13" s="393"/>
+      <c r="Y13" s="393"/>
+      <c r="Z13" s="393"/>
+      <c r="AA13" s="393"/>
+      <c r="AB13" s="394"/>
+      <c r="AC13" s="421"/>
+      <c r="AD13" s="395"/>
+      <c r="AE13" s="396"/>
+      <c r="AF13" s="396"/>
+      <c r="AG13" s="397"/>
+      <c r="AH13" s="372"/>
+      <c r="AI13" s="373"/>
     </row>
     <row r="14" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="96">
         <v>5</v>
       </c>
-      <c r="B14" s="388"/>
-      <c r="C14" s="389"/>
-      <c r="D14" s="389"/>
-      <c r="E14" s="389"/>
-      <c r="F14" s="390"/>
-      <c r="G14" s="385"/>
-      <c r="H14" s="386"/>
-      <c r="I14" s="387"/>
-      <c r="J14" s="385"/>
-      <c r="K14" s="386"/>
-      <c r="L14" s="386"/>
-      <c r="M14" s="386"/>
-      <c r="N14" s="386"/>
-      <c r="O14" s="386"/>
-      <c r="P14" s="387"/>
-      <c r="Q14" s="394"/>
-      <c r="R14" s="396"/>
-      <c r="S14" s="394"/>
-      <c r="T14" s="395"/>
-      <c r="U14" s="396"/>
-      <c r="V14" s="377"/>
-      <c r="W14" s="378"/>
-      <c r="X14" s="378"/>
-      <c r="Y14" s="378"/>
-      <c r="Z14" s="378"/>
-      <c r="AA14" s="378"/>
-      <c r="AB14" s="379"/>
-      <c r="AC14" s="417"/>
-      <c r="AD14" s="366"/>
-      <c r="AE14" s="367"/>
-      <c r="AF14" s="367"/>
-      <c r="AG14" s="368"/>
-      <c r="AH14" s="375"/>
-      <c r="AI14" s="376"/>
+      <c r="B14" s="412"/>
+      <c r="C14" s="413"/>
+      <c r="D14" s="413"/>
+      <c r="E14" s="413"/>
+      <c r="F14" s="414"/>
+      <c r="G14" s="357"/>
+      <c r="H14" s="358"/>
+      <c r="I14" s="359"/>
+      <c r="J14" s="357"/>
+      <c r="K14" s="358"/>
+      <c r="L14" s="358"/>
+      <c r="M14" s="358"/>
+      <c r="N14" s="358"/>
+      <c r="O14" s="358"/>
+      <c r="P14" s="359"/>
+      <c r="Q14" s="363"/>
+      <c r="R14" s="364"/>
+      <c r="S14" s="363"/>
+      <c r="T14" s="368"/>
+      <c r="U14" s="364"/>
+      <c r="V14" s="392"/>
+      <c r="W14" s="393"/>
+      <c r="X14" s="393"/>
+      <c r="Y14" s="393"/>
+      <c r="Z14" s="393"/>
+      <c r="AA14" s="393"/>
+      <c r="AB14" s="394"/>
+      <c r="AC14" s="421"/>
+      <c r="AD14" s="395"/>
+      <c r="AE14" s="396"/>
+      <c r="AF14" s="396"/>
+      <c r="AG14" s="397"/>
+      <c r="AH14" s="372"/>
+      <c r="AI14" s="373"/>
     </row>
     <row r="15" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="96">
         <v>6</v>
       </c>
-      <c r="B15" s="388"/>
-      <c r="C15" s="389"/>
-      <c r="D15" s="389"/>
-      <c r="E15" s="389"/>
-      <c r="F15" s="390"/>
-      <c r="G15" s="385"/>
-      <c r="H15" s="386"/>
-      <c r="I15" s="387"/>
-      <c r="J15" s="385"/>
-      <c r="K15" s="386"/>
-      <c r="L15" s="386"/>
-      <c r="M15" s="386"/>
-      <c r="N15" s="386"/>
-      <c r="O15" s="386"/>
-      <c r="P15" s="387"/>
-      <c r="Q15" s="394"/>
-      <c r="R15" s="396"/>
-      <c r="S15" s="394"/>
-      <c r="T15" s="395"/>
-      <c r="U15" s="396"/>
-      <c r="V15" s="377"/>
-      <c r="W15" s="378"/>
-      <c r="X15" s="378"/>
-      <c r="Y15" s="378"/>
-      <c r="Z15" s="378"/>
-      <c r="AA15" s="378"/>
-      <c r="AB15" s="379"/>
-      <c r="AC15" s="417"/>
-      <c r="AD15" s="366"/>
-      <c r="AE15" s="367"/>
-      <c r="AF15" s="367"/>
-      <c r="AG15" s="368"/>
-      <c r="AH15" s="375"/>
-      <c r="AI15" s="376"/>
+      <c r="B15" s="412"/>
+      <c r="C15" s="413"/>
+      <c r="D15" s="413"/>
+      <c r="E15" s="413"/>
+      <c r="F15" s="414"/>
+      <c r="G15" s="357"/>
+      <c r="H15" s="358"/>
+      <c r="I15" s="359"/>
+      <c r="J15" s="357"/>
+      <c r="K15" s="358"/>
+      <c r="L15" s="358"/>
+      <c r="M15" s="358"/>
+      <c r="N15" s="358"/>
+      <c r="O15" s="358"/>
+      <c r="P15" s="359"/>
+      <c r="Q15" s="363"/>
+      <c r="R15" s="364"/>
+      <c r="S15" s="363"/>
+      <c r="T15" s="368"/>
+      <c r="U15" s="364"/>
+      <c r="V15" s="392"/>
+      <c r="W15" s="393"/>
+      <c r="X15" s="393"/>
+      <c r="Y15" s="393"/>
+      <c r="Z15" s="393"/>
+      <c r="AA15" s="393"/>
+      <c r="AB15" s="394"/>
+      <c r="AC15" s="421"/>
+      <c r="AD15" s="395"/>
+      <c r="AE15" s="396"/>
+      <c r="AF15" s="396"/>
+      <c r="AG15" s="397"/>
+      <c r="AH15" s="372"/>
+      <c r="AI15" s="373"/>
     </row>
     <row r="16" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="97">
         <v>7</v>
       </c>
-      <c r="B16" s="388"/>
-      <c r="C16" s="389"/>
-      <c r="D16" s="389"/>
-      <c r="E16" s="389"/>
-      <c r="F16" s="390"/>
-      <c r="G16" s="385"/>
-      <c r="H16" s="386"/>
-      <c r="I16" s="387"/>
-      <c r="J16" s="385"/>
-      <c r="K16" s="386"/>
-      <c r="L16" s="386"/>
-      <c r="M16" s="386"/>
-      <c r="N16" s="386"/>
-      <c r="O16" s="386"/>
-      <c r="P16" s="387"/>
-      <c r="Q16" s="394"/>
-      <c r="R16" s="396"/>
-      <c r="S16" s="394"/>
-      <c r="T16" s="395"/>
-      <c r="U16" s="396"/>
-      <c r="V16" s="377"/>
-      <c r="W16" s="378"/>
-      <c r="X16" s="378"/>
-      <c r="Y16" s="378"/>
-      <c r="Z16" s="378"/>
-      <c r="AA16" s="378"/>
-      <c r="AB16" s="379"/>
-      <c r="AC16" s="417"/>
-      <c r="AD16" s="366"/>
-      <c r="AE16" s="367"/>
-      <c r="AF16" s="367"/>
-      <c r="AG16" s="368"/>
-      <c r="AH16" s="375"/>
-      <c r="AI16" s="376"/>
+      <c r="B16" s="412"/>
+      <c r="C16" s="413"/>
+      <c r="D16" s="413"/>
+      <c r="E16" s="413"/>
+      <c r="F16" s="414"/>
+      <c r="G16" s="357"/>
+      <c r="H16" s="358"/>
+      <c r="I16" s="359"/>
+      <c r="J16" s="357"/>
+      <c r="K16" s="358"/>
+      <c r="L16" s="358"/>
+      <c r="M16" s="358"/>
+      <c r="N16" s="358"/>
+      <c r="O16" s="358"/>
+      <c r="P16" s="359"/>
+      <c r="Q16" s="363"/>
+      <c r="R16" s="364"/>
+      <c r="S16" s="363"/>
+      <c r="T16" s="368"/>
+      <c r="U16" s="364"/>
+      <c r="V16" s="392"/>
+      <c r="W16" s="393"/>
+      <c r="X16" s="393"/>
+      <c r="Y16" s="393"/>
+      <c r="Z16" s="393"/>
+      <c r="AA16" s="393"/>
+      <c r="AB16" s="394"/>
+      <c r="AC16" s="421"/>
+      <c r="AD16" s="395"/>
+      <c r="AE16" s="396"/>
+      <c r="AF16" s="396"/>
+      <c r="AG16" s="397"/>
+      <c r="AH16" s="372"/>
+      <c r="AI16" s="373"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="97">
         <v>8</v>
       </c>
-      <c r="B17" s="388"/>
-      <c r="C17" s="389"/>
-      <c r="D17" s="389"/>
-      <c r="E17" s="389"/>
-      <c r="F17" s="390"/>
-      <c r="G17" s="385"/>
-      <c r="H17" s="386"/>
-      <c r="I17" s="387"/>
-      <c r="J17" s="385"/>
-      <c r="K17" s="386"/>
-      <c r="L17" s="386"/>
-      <c r="M17" s="386"/>
-      <c r="N17" s="386"/>
-      <c r="O17" s="386"/>
-      <c r="P17" s="387"/>
-      <c r="Q17" s="394"/>
-      <c r="R17" s="396"/>
-      <c r="S17" s="394"/>
-      <c r="T17" s="395"/>
-      <c r="U17" s="396"/>
-      <c r="V17" s="377"/>
-      <c r="W17" s="378"/>
-      <c r="X17" s="378"/>
-      <c r="Y17" s="378"/>
-      <c r="Z17" s="378"/>
-      <c r="AA17" s="378"/>
-      <c r="AB17" s="379"/>
-      <c r="AC17" s="417"/>
-      <c r="AD17" s="366"/>
-      <c r="AE17" s="367"/>
-      <c r="AF17" s="367"/>
-      <c r="AG17" s="368"/>
-      <c r="AH17" s="375"/>
-      <c r="AI17" s="376"/>
+      <c r="B17" s="412"/>
+      <c r="C17" s="413"/>
+      <c r="D17" s="413"/>
+      <c r="E17" s="413"/>
+      <c r="F17" s="414"/>
+      <c r="G17" s="357"/>
+      <c r="H17" s="358"/>
+      <c r="I17" s="359"/>
+      <c r="J17" s="357"/>
+      <c r="K17" s="358"/>
+      <c r="L17" s="358"/>
+      <c r="M17" s="358"/>
+      <c r="N17" s="358"/>
+      <c r="O17" s="358"/>
+      <c r="P17" s="359"/>
+      <c r="Q17" s="363"/>
+      <c r="R17" s="364"/>
+      <c r="S17" s="363"/>
+      <c r="T17" s="368"/>
+      <c r="U17" s="364"/>
+      <c r="V17" s="392"/>
+      <c r="W17" s="393"/>
+      <c r="X17" s="393"/>
+      <c r="Y17" s="393"/>
+      <c r="Z17" s="393"/>
+      <c r="AA17" s="393"/>
+      <c r="AB17" s="394"/>
+      <c r="AC17" s="421"/>
+      <c r="AD17" s="395"/>
+      <c r="AE17" s="396"/>
+      <c r="AF17" s="396"/>
+      <c r="AG17" s="397"/>
+      <c r="AH17" s="372"/>
+      <c r="AI17" s="373"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="98">
         <v>9</v>
       </c>
-      <c r="B18" s="411"/>
-      <c r="C18" s="412"/>
-      <c r="D18" s="412"/>
-      <c r="E18" s="412"/>
-      <c r="F18" s="413"/>
-      <c r="G18" s="408"/>
-      <c r="H18" s="409"/>
-      <c r="I18" s="410"/>
-      <c r="J18" s="408"/>
-      <c r="K18" s="409"/>
-      <c r="L18" s="409"/>
-      <c r="M18" s="409"/>
-      <c r="N18" s="409"/>
-      <c r="O18" s="409"/>
-      <c r="P18" s="410"/>
-      <c r="Q18" s="405"/>
-      <c r="R18" s="407"/>
-      <c r="S18" s="405"/>
-      <c r="T18" s="406"/>
-      <c r="U18" s="407"/>
-      <c r="V18" s="400"/>
-      <c r="W18" s="401"/>
-      <c r="X18" s="401"/>
-      <c r="Y18" s="401"/>
-      <c r="Z18" s="401"/>
-      <c r="AA18" s="401"/>
-      <c r="AB18" s="402"/>
-      <c r="AC18" s="418"/>
-      <c r="AD18" s="357"/>
-      <c r="AE18" s="358"/>
-      <c r="AF18" s="358"/>
-      <c r="AG18" s="359"/>
-      <c r="AH18" s="414"/>
-      <c r="AI18" s="415"/>
+      <c r="B18" s="415"/>
+      <c r="C18" s="416"/>
+      <c r="D18" s="416"/>
+      <c r="E18" s="416"/>
+      <c r="F18" s="417"/>
+      <c r="G18" s="409"/>
+      <c r="H18" s="410"/>
+      <c r="I18" s="411"/>
+      <c r="J18" s="409"/>
+      <c r="K18" s="410"/>
+      <c r="L18" s="410"/>
+      <c r="M18" s="410"/>
+      <c r="N18" s="410"/>
+      <c r="O18" s="410"/>
+      <c r="P18" s="411"/>
+      <c r="Q18" s="406"/>
+      <c r="R18" s="408"/>
+      <c r="S18" s="406"/>
+      <c r="T18" s="407"/>
+      <c r="U18" s="408"/>
+      <c r="V18" s="401"/>
+      <c r="W18" s="402"/>
+      <c r="X18" s="402"/>
+      <c r="Y18" s="402"/>
+      <c r="Z18" s="402"/>
+      <c r="AA18" s="402"/>
+      <c r="AB18" s="403"/>
+      <c r="AC18" s="422"/>
+      <c r="AD18" s="429"/>
+      <c r="AE18" s="430"/>
+      <c r="AF18" s="430"/>
+      <c r="AG18" s="431"/>
+      <c r="AH18" s="418"/>
+      <c r="AI18" s="419"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="403"/>
-      <c r="B19" s="404"/>
-      <c r="C19" s="404"/>
-      <c r="D19" s="404"/>
-      <c r="E19" s="404"/>
-      <c r="F19" s="404"/>
+      <c r="A19" s="404"/>
+      <c r="B19" s="405"/>
+      <c r="C19" s="405"/>
+      <c r="D19" s="405"/>
+      <c r="E19" s="405"/>
+      <c r="F19" s="405"/>
       <c r="G19" s="99"/>
       <c r="H19" s="99"/>
       <c r="I19" s="99"/>
@@ -12122,23 +12122,23 @@
       <c r="AA19" s="99"/>
       <c r="AB19" s="99"/>
       <c r="AC19" s="100"/>
-      <c r="AD19" s="399"/>
-      <c r="AE19" s="399"/>
-      <c r="AF19" s="399"/>
-      <c r="AG19" s="399"/>
-      <c r="AH19" s="399"/>
+      <c r="AD19" s="400"/>
+      <c r="AE19" s="400"/>
+      <c r="AF19" s="400"/>
+      <c r="AG19" s="400"/>
+      <c r="AH19" s="400"/>
       <c r="AI19" s="35"/>
       <c r="AJ19" s="101"/>
     </row>
     <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="397" t="s">
+      <c r="A20" s="398" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="398"/>
-      <c r="C20" s="398"/>
-      <c r="D20" s="398"/>
-      <c r="E20" s="398"/>
-      <c r="F20" s="398"/>
+      <c r="B20" s="399"/>
+      <c r="C20" s="399"/>
+      <c r="D20" s="399"/>
+      <c r="E20" s="399"/>
+      <c r="F20" s="399"/>
       <c r="G20" s="102"/>
       <c r="H20" s="103"/>
       <c r="I20" s="103"/>
@@ -12685,20 +12685,72 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="V18:AB18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AC10:AC18"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AH14:AI14"/>
     <mergeCell ref="AH16:AI16"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
@@ -12723,72 +12775,20 @@
     <mergeCell ref="AH9:AI9"/>
     <mergeCell ref="V10:AB10"/>
     <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="V18:AB18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AC10:AC18"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="J10:P10"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="2">
@@ -12827,163 +12827,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="303" t="str">
+      <c r="A1" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="251" t="str">
+      <c r="B1" s="298"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
-      <c r="N1" s="253"/>
-      <c r="O1" s="306" t="str">
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="300" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="307"/>
-      <c r="Q1" s="307"/>
-      <c r="R1" s="308"/>
-      <c r="S1" s="288" t="str">
+      <c r="P1" s="301"/>
+      <c r="Q1" s="301"/>
+      <c r="R1" s="302"/>
+      <c r="S1" s="251" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
-        <v>External Interface Design Document(JSON)</v>
-      </c>
-      <c r="T1" s="289"/>
-      <c r="U1" s="289"/>
-      <c r="V1" s="289"/>
-      <c r="W1" s="289"/>
-      <c r="X1" s="289"/>
-      <c r="Y1" s="289"/>
-      <c r="Z1" s="290"/>
-      <c r="AA1" s="303" t="str">
+        <v>External Interface Design(JSON)</v>
+      </c>
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
+      <c r="X1" s="252"/>
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="304"/>
-      <c r="AC1" s="300" t="str">
+      <c r="AB1" s="299"/>
+      <c r="AC1" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="301"/>
-      <c r="AE1" s="301"/>
-      <c r="AF1" s="302"/>
-      <c r="AG1" s="297">
+      <c r="AD1" s="313"/>
+      <c r="AE1" s="313"/>
+      <c r="AF1" s="314"/>
+      <c r="AG1" s="309">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="298"/>
-      <c r="AI1" s="299"/>
+      <c r="AH1" s="310"/>
+      <c r="AI1" s="311"/>
     </row>
     <row r="2" spans="1:96" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="303" t="str">
+      <c r="A2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="305"/>
-      <c r="C2" s="305"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="251" t="str">
+      <c r="B2" s="298"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="252"/>
-      <c r="K2" s="252"/>
-      <c r="L2" s="252"/>
-      <c r="M2" s="252"/>
-      <c r="N2" s="253"/>
-      <c r="O2" s="309"/>
-      <c r="P2" s="310"/>
-      <c r="Q2" s="310"/>
-      <c r="R2" s="311"/>
-      <c r="S2" s="291"/>
-      <c r="T2" s="292"/>
-      <c r="U2" s="292"/>
-      <c r="V2" s="292"/>
-      <c r="W2" s="292"/>
-      <c r="X2" s="292"/>
-      <c r="Y2" s="292"/>
-      <c r="Z2" s="293"/>
-      <c r="AA2" s="303" t="str">
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="246"/>
+      <c r="M2" s="246"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="303"/>
+      <c r="P2" s="304"/>
+      <c r="Q2" s="304"/>
+      <c r="R2" s="305"/>
+      <c r="S2" s="254"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="256"/>
+      <c r="AA2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="304"/>
-      <c r="AC2" s="300" t="str">
+      <c r="AB2" s="299"/>
+      <c r="AC2" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="301"/>
-      <c r="AE2" s="301"/>
-      <c r="AF2" s="302"/>
-      <c r="AG2" s="297" t="str">
+      <c r="AD2" s="313"/>
+      <c r="AE2" s="313"/>
+      <c r="AF2" s="314"/>
+      <c r="AG2" s="309" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="298"/>
-      <c r="AI2" s="299"/>
+      <c r="AH2" s="310"/>
+      <c r="AI2" s="311"/>
     </row>
     <row r="3" spans="1:96" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="303" t="str">
+      <c r="A3" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="305"/>
-      <c r="C3" s="305"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="251" t="str">
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Client Management System</v>
       </c>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="252"/>
-      <c r="L3" s="252"/>
-      <c r="M3" s="252"/>
-      <c r="N3" s="253"/>
-      <c r="O3" s="312"/>
-      <c r="P3" s="313"/>
-      <c r="Q3" s="313"/>
-      <c r="R3" s="314"/>
-      <c r="S3" s="294"/>
-      <c r="T3" s="295"/>
-      <c r="U3" s="295"/>
-      <c r="V3" s="295"/>
-      <c r="W3" s="295"/>
-      <c r="X3" s="295"/>
-      <c r="Y3" s="295"/>
-      <c r="Z3" s="296"/>
-      <c r="AA3" s="303"/>
-      <c r="AB3" s="304"/>
-      <c r="AC3" s="300" t="str">
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="246"/>
+      <c r="L3" s="246"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="306"/>
+      <c r="P3" s="307"/>
+      <c r="Q3" s="307"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="259"/>
+      <c r="AA3" s="297"/>
+      <c r="AB3" s="299"/>
+      <c r="AC3" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="301"/>
-      <c r="AE3" s="301"/>
-      <c r="AF3" s="302"/>
-      <c r="AG3" s="297" t="str">
+      <c r="AD3" s="313"/>
+      <c r="AE3" s="313"/>
+      <c r="AF3" s="314"/>
+      <c r="AG3" s="309" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="298"/>
-      <c r="AI3" s="299"/>
+      <c r="AH3" s="310"/>
+      <c r="AI3" s="311"/>
     </row>
     <row r="4" spans="1:96" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:96" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -13034,60 +13034,60 @@
       <c r="A8" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="454" t="s">
+      <c r="B8" s="463" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="455"/>
-      <c r="D8" s="455"/>
-      <c r="E8" s="455"/>
-      <c r="F8" s="456"/>
-      <c r="G8" s="454" t="s">
+      <c r="C8" s="464"/>
+      <c r="D8" s="464"/>
+      <c r="E8" s="464"/>
+      <c r="F8" s="465"/>
+      <c r="G8" s="463" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="455"/>
-      <c r="I8" s="455"/>
-      <c r="J8" s="455"/>
-      <c r="K8" s="456"/>
-      <c r="L8" s="454" t="s">
+      <c r="H8" s="464"/>
+      <c r="I8" s="464"/>
+      <c r="J8" s="464"/>
+      <c r="K8" s="465"/>
+      <c r="L8" s="463" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="455"/>
-      <c r="N8" s="455"/>
-      <c r="O8" s="455"/>
-      <c r="P8" s="456"/>
+      <c r="M8" s="464"/>
+      <c r="N8" s="464"/>
+      <c r="O8" s="464"/>
+      <c r="P8" s="465"/>
       <c r="Q8" s="210" t="s">
         <v>78</v>
       </c>
-      <c r="R8" s="464" t="s">
+      <c r="R8" s="448" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="464"/>
-      <c r="T8" s="464"/>
-      <c r="U8" s="464"/>
-      <c r="V8" s="466" t="s">
+      <c r="S8" s="448"/>
+      <c r="T8" s="448"/>
+      <c r="U8" s="448"/>
+      <c r="V8" s="453" t="s">
         <v>25</v>
       </c>
-      <c r="W8" s="467"/>
-      <c r="X8" s="466" t="s">
+      <c r="W8" s="454"/>
+      <c r="X8" s="453" t="s">
         <v>26</v>
       </c>
-      <c r="Y8" s="467"/>
-      <c r="Z8" s="454" t="s">
+      <c r="Y8" s="454"/>
+      <c r="Z8" s="463" t="s">
         <v>27</v>
       </c>
-      <c r="AA8" s="455"/>
-      <c r="AB8" s="456"/>
-      <c r="AC8" s="454" t="s">
+      <c r="AA8" s="464"/>
+      <c r="AB8" s="465"/>
+      <c r="AC8" s="463" t="s">
         <v>28</v>
       </c>
-      <c r="AD8" s="455"/>
-      <c r="AE8" s="455"/>
-      <c r="AF8" s="455"/>
-      <c r="AG8" s="455"/>
-      <c r="AH8" s="455"/>
-      <c r="AI8" s="455"/>
-      <c r="AJ8" s="455"/>
-      <c r="AK8" s="456"/>
+      <c r="AD8" s="464"/>
+      <c r="AE8" s="464"/>
+      <c r="AF8" s="464"/>
+      <c r="AG8" s="464"/>
+      <c r="AH8" s="464"/>
+      <c r="AI8" s="464"/>
+      <c r="AJ8" s="464"/>
+      <c r="AK8" s="465"/>
       <c r="AL8" s="211"/>
       <c r="AM8" s="211"/>
       <c r="AN8" s="211"/>
@@ -13147,48 +13147,48 @@
       <c r="A9" s="37">
         <v>1</v>
       </c>
-      <c r="B9" s="446" t="s">
+      <c r="B9" s="450" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="447"/>
-      <c r="D9" s="447"/>
-      <c r="E9" s="447"/>
-      <c r="F9" s="448"/>
-      <c r="G9" s="457" t="s">
+      <c r="C9" s="451"/>
+      <c r="D9" s="451"/>
+      <c r="E9" s="451"/>
+      <c r="F9" s="452"/>
+      <c r="G9" s="466" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="458"/>
-      <c r="I9" s="458"/>
-      <c r="J9" s="458"/>
-      <c r="K9" s="458"/>
-      <c r="L9" s="446"/>
-      <c r="M9" s="447"/>
-      <c r="N9" s="447"/>
-      <c r="O9" s="447"/>
-      <c r="P9" s="448"/>
+      <c r="H9" s="467"/>
+      <c r="I9" s="467"/>
+      <c r="J9" s="467"/>
+      <c r="K9" s="467"/>
+      <c r="L9" s="450"/>
+      <c r="M9" s="451"/>
+      <c r="N9" s="451"/>
+      <c r="O9" s="451"/>
+      <c r="P9" s="452"/>
       <c r="Q9" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="R9" s="465"/>
-      <c r="S9" s="465"/>
-      <c r="T9" s="465"/>
-      <c r="U9" s="465"/>
-      <c r="V9" s="452"/>
-      <c r="W9" s="453"/>
-      <c r="X9" s="449"/>
-      <c r="Y9" s="451"/>
-      <c r="Z9" s="446"/>
-      <c r="AA9" s="447"/>
-      <c r="AB9" s="448"/>
-      <c r="AC9" s="446"/>
-      <c r="AD9" s="447"/>
-      <c r="AE9" s="447"/>
-      <c r="AF9" s="447"/>
-      <c r="AG9" s="447"/>
-      <c r="AH9" s="447"/>
-      <c r="AI9" s="447"/>
-      <c r="AJ9" s="447"/>
-      <c r="AK9" s="448"/>
+      <c r="R9" s="449"/>
+      <c r="S9" s="449"/>
+      <c r="T9" s="449"/>
+      <c r="U9" s="449"/>
+      <c r="V9" s="455"/>
+      <c r="W9" s="456"/>
+      <c r="X9" s="457"/>
+      <c r="Y9" s="458"/>
+      <c r="Z9" s="450"/>
+      <c r="AA9" s="451"/>
+      <c r="AB9" s="452"/>
+      <c r="AC9" s="450"/>
+      <c r="AD9" s="451"/>
+      <c r="AE9" s="451"/>
+      <c r="AF9" s="451"/>
+      <c r="AG9" s="451"/>
+      <c r="AH9" s="451"/>
+      <c r="AI9" s="451"/>
+      <c r="AJ9" s="451"/>
+      <c r="AK9" s="452"/>
       <c r="AL9" s="36"/>
       <c r="AM9" s="36"/>
       <c r="AN9" s="36"/>
@@ -13247,54 +13247,54 @@
       <c r="A10" s="37">
         <v>2</v>
       </c>
-      <c r="B10" s="446" t="s">
+      <c r="B10" s="450" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="447"/>
-      <c r="D10" s="447"/>
-      <c r="E10" s="447"/>
-      <c r="F10" s="448"/>
-      <c r="G10" s="443" t="s">
-        <v>105</v>
-      </c>
-      <c r="H10" s="444"/>
-      <c r="I10" s="444"/>
-      <c r="J10" s="444"/>
-      <c r="K10" s="445"/>
-      <c r="L10" s="446" t="s">
+      <c r="C10" s="451"/>
+      <c r="D10" s="451"/>
+      <c r="E10" s="451"/>
+      <c r="F10" s="452"/>
+      <c r="G10" s="459" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="460"/>
+      <c r="I10" s="460"/>
+      <c r="J10" s="460"/>
+      <c r="K10" s="461"/>
+      <c r="L10" s="450" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="447"/>
-      <c r="N10" s="447"/>
-      <c r="O10" s="447"/>
-      <c r="P10" s="448"/>
+      <c r="M10" s="451"/>
+      <c r="N10" s="451"/>
+      <c r="O10" s="451"/>
+      <c r="P10" s="452"/>
       <c r="Q10" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="R10" s="446" t="s">
+      <c r="R10" s="450" t="s">
         <v>32</v>
       </c>
-      <c r="S10" s="447"/>
-      <c r="T10" s="447"/>
-      <c r="U10" s="448"/>
-      <c r="V10" s="452">
+      <c r="S10" s="451"/>
+      <c r="T10" s="451"/>
+      <c r="U10" s="452"/>
+      <c r="V10" s="455">
         <v>1</v>
       </c>
-      <c r="W10" s="453"/>
-      <c r="X10" s="449"/>
-      <c r="Y10" s="451"/>
-      <c r="Z10" s="446"/>
-      <c r="AA10" s="447"/>
-      <c r="AB10" s="448"/>
-      <c r="AC10" s="446"/>
-      <c r="AD10" s="447"/>
-      <c r="AE10" s="447"/>
-      <c r="AF10" s="447"/>
-      <c r="AG10" s="447"/>
-      <c r="AH10" s="447"/>
-      <c r="AI10" s="447"/>
-      <c r="AJ10" s="447"/>
-      <c r="AK10" s="448"/>
+      <c r="W10" s="456"/>
+      <c r="X10" s="457"/>
+      <c r="Y10" s="458"/>
+      <c r="Z10" s="450"/>
+      <c r="AA10" s="451"/>
+      <c r="AB10" s="452"/>
+      <c r="AC10" s="450"/>
+      <c r="AD10" s="451"/>
+      <c r="AE10" s="451"/>
+      <c r="AF10" s="451"/>
+      <c r="AG10" s="451"/>
+      <c r="AH10" s="451"/>
+      <c r="AI10" s="451"/>
+      <c r="AJ10" s="451"/>
+      <c r="AK10" s="452"/>
       <c r="AL10" s="36"/>
       <c r="AM10" s="36"/>
       <c r="AN10" s="36"/>
@@ -13353,40 +13353,40 @@
       <c r="A11" s="37">
         <v>3</v>
       </c>
-      <c r="B11" s="446" t="s">
+      <c r="B11" s="450" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="447"/>
-      <c r="D11" s="447"/>
-      <c r="E11" s="447"/>
-      <c r="F11" s="448"/>
-      <c r="G11" s="443" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="444"/>
-      <c r="I11" s="444"/>
-      <c r="J11" s="444"/>
-      <c r="K11" s="445"/>
-      <c r="L11" s="446" t="s">
+      <c r="C11" s="451"/>
+      <c r="D11" s="451"/>
+      <c r="E11" s="451"/>
+      <c r="F11" s="452"/>
+      <c r="G11" s="459" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="460"/>
+      <c r="I11" s="460"/>
+      <c r="J11" s="460"/>
+      <c r="K11" s="461"/>
+      <c r="L11" s="450" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="447"/>
-      <c r="N11" s="447"/>
-      <c r="O11" s="447"/>
-      <c r="P11" s="448"/>
+      <c r="M11" s="451"/>
+      <c r="N11" s="451"/>
+      <c r="O11" s="451"/>
+      <c r="P11" s="452"/>
       <c r="Q11" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="R11" s="446" t="s">
+      <c r="R11" s="450" t="s">
         <v>34</v>
       </c>
-      <c r="S11" s="447"/>
-      <c r="T11" s="447"/>
-      <c r="U11" s="448"/>
-      <c r="V11" s="452">
+      <c r="S11" s="451"/>
+      <c r="T11" s="451"/>
+      <c r="U11" s="452"/>
+      <c r="V11" s="455">
         <v>1</v>
       </c>
-      <c r="W11" s="453"/>
+      <c r="W11" s="456"/>
       <c r="X11" s="39"/>
       <c r="Y11" s="40"/>
       <c r="Z11" s="41"/>
@@ -13457,28 +13457,28 @@
     </row>
     <row r="12" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
-      <c r="B12" s="446"/>
-      <c r="C12" s="447"/>
-      <c r="D12" s="447"/>
-      <c r="E12" s="447"/>
-      <c r="F12" s="448"/>
-      <c r="G12" s="449"/>
-      <c r="H12" s="450"/>
-      <c r="I12" s="450"/>
-      <c r="J12" s="450"/>
-      <c r="K12" s="451"/>
-      <c r="L12" s="449"/>
-      <c r="M12" s="450"/>
-      <c r="N12" s="450"/>
-      <c r="O12" s="450"/>
-      <c r="P12" s="451"/>
+      <c r="B12" s="450"/>
+      <c r="C12" s="451"/>
+      <c r="D12" s="451"/>
+      <c r="E12" s="451"/>
+      <c r="F12" s="452"/>
+      <c r="G12" s="457"/>
+      <c r="H12" s="462"/>
+      <c r="I12" s="462"/>
+      <c r="J12" s="462"/>
+      <c r="K12" s="458"/>
+      <c r="L12" s="457"/>
+      <c r="M12" s="462"/>
+      <c r="N12" s="462"/>
+      <c r="O12" s="462"/>
+      <c r="P12" s="458"/>
       <c r="Q12" s="38"/>
-      <c r="R12" s="446"/>
-      <c r="S12" s="447"/>
-      <c r="T12" s="447"/>
-      <c r="U12" s="448"/>
-      <c r="V12" s="452"/>
-      <c r="W12" s="453"/>
+      <c r="R12" s="450"/>
+      <c r="S12" s="451"/>
+      <c r="T12" s="451"/>
+      <c r="U12" s="452"/>
+      <c r="V12" s="455"/>
+      <c r="W12" s="456"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="40"/>
       <c r="Z12" s="41"/>
@@ -13752,47 +13752,47 @@
       <c r="CR16" s="51"/>
     </row>
     <row r="17" spans="1:96" s="57" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="459" t="s">
+      <c r="A17" s="443" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="460"/>
-      <c r="C17" s="460"/>
-      <c r="D17" s="460"/>
-      <c r="E17" s="460"/>
-      <c r="F17" s="460"/>
-      <c r="G17" s="460"/>
-      <c r="H17" s="460"/>
-      <c r="I17" s="460"/>
-      <c r="J17" s="460"/>
-      <c r="K17" s="460"/>
-      <c r="L17" s="460"/>
-      <c r="M17" s="460"/>
-      <c r="N17" s="460"/>
-      <c r="O17" s="460"/>
-      <c r="P17" s="460"/>
-      <c r="Q17" s="460"/>
-      <c r="R17" s="460"/>
-      <c r="S17" s="460"/>
-      <c r="T17" s="460"/>
-      <c r="U17" s="460"/>
-      <c r="V17" s="460"/>
-      <c r="W17" s="460"/>
-      <c r="X17" s="460"/>
-      <c r="Y17" s="461" t="s">
+      <c r="B17" s="444"/>
+      <c r="C17" s="444"/>
+      <c r="D17" s="444"/>
+      <c r="E17" s="444"/>
+      <c r="F17" s="444"/>
+      <c r="G17" s="444"/>
+      <c r="H17" s="444"/>
+      <c r="I17" s="444"/>
+      <c r="J17" s="444"/>
+      <c r="K17" s="444"/>
+      <c r="L17" s="444"/>
+      <c r="M17" s="444"/>
+      <c r="N17" s="444"/>
+      <c r="O17" s="444"/>
+      <c r="P17" s="444"/>
+      <c r="Q17" s="444"/>
+      <c r="R17" s="444"/>
+      <c r="S17" s="444"/>
+      <c r="T17" s="444"/>
+      <c r="U17" s="444"/>
+      <c r="V17" s="444"/>
+      <c r="W17" s="444"/>
+      <c r="X17" s="444"/>
+      <c r="Y17" s="445" t="s">
         <v>73</v>
       </c>
-      <c r="Z17" s="462"/>
-      <c r="AA17" s="462"/>
-      <c r="AB17" s="462"/>
-      <c r="AC17" s="462"/>
-      <c r="AD17" s="462"/>
-      <c r="AE17" s="462"/>
-      <c r="AF17" s="462"/>
-      <c r="AG17" s="462"/>
-      <c r="AH17" s="462"/>
-      <c r="AI17" s="462"/>
-      <c r="AJ17" s="462"/>
-      <c r="AK17" s="463"/>
+      <c r="Z17" s="446"/>
+      <c r="AA17" s="446"/>
+      <c r="AB17" s="446"/>
+      <c r="AC17" s="446"/>
+      <c r="AD17" s="446"/>
+      <c r="AE17" s="446"/>
+      <c r="AF17" s="446"/>
+      <c r="AG17" s="446"/>
+      <c r="AH17" s="446"/>
+      <c r="AI17" s="446"/>
+      <c r="AJ17" s="446"/>
+      <c r="AK17" s="447"/>
     </row>
     <row r="18" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="58"/>
@@ -14439,6 +14439,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="AC10:AK10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="A17:X17"/>
     <mergeCell ref="Y17:AK17"/>
     <mergeCell ref="R8:U8"/>
@@ -14455,43 +14492,6 @@
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="AC8:AK8"/>
     <mergeCell ref="AC9:AK9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC10:AK10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="2">
